--- a/openai/algabo_results.xlsx
+++ b/openai/algabo_results.xlsx
@@ -448,3340 +448,3336 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>greenwood-aco-perro-gato-500</t>
+          <t>vais-limpiavidrios-gatillo-500</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Greenwood - Shampoo para Perro y Gato - 500 ml - Verde Natural</t>
+          <t>Vais - Limpiavidrios Gatillo - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sally-alcohol-gel-2d-holder-30</t>
+          <t>algabo-quita-c-dosif-120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sally - Gel Antibacterial en Holder 2D - 30 ml</t>
+          <t>Algabo - Quitamanchas con dosificador - 120 ml</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vais-perf-suave-brisa-dp-250</t>
+          <t>kids-shampoo-sandia-dulce-350-ml</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vais - Perfume Cálida Primavera - Doypack 250 ml</t>
+          <t>Algabo Kids - Shampoo Sandía - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vais-perf-suave-brisa-dp-500</t>
+          <t>algabo-quita-black-100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vais - Perfume Suave Brisa - 250 ml - Vaporizador</t>
+          <t>Algabo - Quita Manchas Negras - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>algabo-enjuague-bucal-500</t>
+          <t>algabo-quita-xtreme-prof-100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algabo - Enjuague Bucal Refrescante - 500 ml - Menta Fresca</t>
+          <t>Algabo - Quita Manchas Xtreme - Profesional - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>algabo-enj-bucal-salcohol-500</t>
+          <t>algabo-quita-c-keratina-100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Algabo Fresh - Enjuague Bucal sin Alcohol - 500 ml</t>
+          <t>Algabo - Quita Keratina - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vais-banio-ep-900</t>
+          <t>algabo-quita-humectante-100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FreshBath - Vais Baño Espumante - 900 ml - Azul Océano - Fórmula relajante con aroma a algas marinas</t>
+          <t>Algabo - Quita Humectante - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>algabo-talco-soft-rosa-180</t>
+          <t>algabo-quita-fortalecedor-100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Algabo - Talco Soft - 200 g - Sin perfume - Protección suave para la piel</t>
+          <t>Algabo - Quita Fortalecedor - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>desodorante-en-polvo-clasico-200g</t>
+          <t>algabo-quita-express-75</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - 200 g - Blanco - Fórmula enriquecida con extracto de aloe vera</t>
+          <t>Algabo - Quita Manchas Express - 75 ml</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>polvo-desodorante-para-pies-repuesto-200-g</t>
+          <t>ultra-sanitizante-gel-ep-1000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Algabo - Foot Exfoliante y Peeling - 200 g - Sin color - Elimina callosidades y suaviza la piel</t>
+          <t>Algabo - Gel Sanitizante Ultra - Eco Pack - 1000 ml</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>algabo-crema-manos-y-unias-90</t>
+          <t>algabo-quita-ckeratina-50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Algabo - Crema Manos y Uñas - 90 ml - Hidratación Profunda - Con Aceite de Argán</t>
+          <t>Algabo - Quita Cutículas con Keratina - 50 ml</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>algabo-discos-desmaq-80</t>
+          <t>algabo-quita-humectante-50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Algabo Beauty - Discos Desmaquillantes - 80 unidades - Suaves y absorbentes</t>
+          <t>Algabo - Quita Humectante - 50 ml</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>algabo-pompones-de-algodon-50</t>
+          <t>algabo-quita-fortalecedor-50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Algabo - Pompones de Algodón - 50 unidades - Blanco - Suaves y absorbentes</t>
+          <t>Algabo - Quita Fortalecedor - 50 ml</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>colonia-inglesa-750ml</t>
+          <t>algabo-jab-liquido-mundial-300</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Inglesa - 750 ml - Elegante y Refrescante</t>
+          <t>Algabo - Jabón Líquido El 10 - Botella 300 ml</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sally-alcohol-gel-perf-75</t>
+          <t>ultra-sanit-gel-fresh-250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sally - Gel Antibacterial Perfumado - 75 ml - Transparente</t>
+          <t>Algabo - Gel Sanitizante Fresh - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>algabo-men-talco-120</t>
+          <t>ultra-sanitizante-gel-250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Algabo Men - Talco Refrescante - 120 g</t>
+          <t>Algabo - Gel Sanitizante Ultra - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>algabo-baby-fecula-doypack-200-g</t>
+          <t>kids-shampoo-melocoton-350-ml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algabo Baby - Fécula Doypack - 200 g</t>
+          <t>Algabo Kids - Shampoo Melocotón - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>algabo-talco-soft-ep-200</t>
+          <t>kids-shampoo-bubble-gum-350-ml</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - 120 g - Blanco y suave</t>
+          <t>Algabo Kids - Shampoo Chicle - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>algabo-talco-clasico-120</t>
+          <t>algabo-sh-aguac-y-argan-ep-300</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Algabo - Talco Soft - 120 g - Blanco y Suave para la Piel</t>
+          <t>Algabo - Shampoo Aguacate y Argán - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>algabo-baby-fecula-talquera-200-g</t>
+          <t>algabo-sh-coco-y-leche-ep-300</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Algabo Baby - Fécula Talquera - 200 g</t>
+          <t>Algabo - Shampoo Coco y Leche - Envase Pequeño - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vais-perf-tela-suave-brisa-250</t>
+          <t>algabo-sh-manz-y-magno-ep-300</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CalidezMax - Vais Perfume Tela Cálida Primavera - 500 ml - Blanco - Aroma duradero</t>
+          <t>Algabo - Shampoo Manzanilla y Magnolia - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vais-perf-tela-calida-prim-500</t>
+          <t>algabo-sh-detox-ep-300</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vais - Perfume Suave Brisa - 500 ml</t>
+          <t>Algabo - Shampoo Detox - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vais-perf-tela-dulces-mimo-500</t>
+          <t>kids-shampoo-bubble-gum-750-ml</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sweet Dreams - Vela Perfumada Tela Dulces Mimos - 500 g</t>
+          <t>Algabo Kids - Shampoo Chicle - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>algabo-crema-miel-almendra-400</t>
+          <t>kids-shampoo-sandia-dulce-750-ml</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Algabo - Crema Hidratante Miel-Almendra - 400 ml</t>
+          <t>Algabo Kids - Shampoo Sandía - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>algabo-crema-avena-karite-400</t>
+          <t>trolls-branch-shampoo-750-ml</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Algabo - Crema de Avena y Karité - 400 ml - Hidratación Profunda</t>
+          <t>Chapoteando - Shampoo Trolls Branch - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>algabo-crema-aloe-manz-400</t>
+          <t>trolls-poppi-shampoo-750-ml</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Algabo - Crema Hidratante de Aloe y Manzanilla - 400 ml</t>
+          <t>Trolls - Shampoo Poppi - 750 ml - Cabello brillante</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>algabo-baby-toallas-humedas-con-tapa-100-unidades</t>
+          <t>algabo-sh-aguacate-y-argan-930</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas con tapa - 100 unidades - Suave y refrescante</t>
+          <t>Algabo - Shampoo Aguacate y Argán - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sally-unicornio-colonia-125-ml</t>
+          <t>algabo-sh-coco-y-leche-930</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Body Splash Mágico - 125 ml</t>
+          <t>Algabo - Shampoo Coco y Leche - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ultra-zombies-colonia-125-ml</t>
+          <t>algabo-sh-manz-y-magnolia-930</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Colonia 125 ml - Fragancia única y duradera - Para niños y niñas</t>
+          <t>Algabo - Shampoo Manzana y Magnolia - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>desodorante-en-polvo-clasico-180g</t>
+          <t>algabo-sh-aguac-y-argan-ep-930</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - 180 g - Blanco - Fragancia fresca y duradera</t>
+          <t>Algabo - Shampoo Aguacate y Argán - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>desodorante-en-polvo-suave-180g</t>
+          <t>algabo-sh-coco-y-miel-ep-930</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Algabo - Talco Soft - 180 g - Rosa - Fórmula suave y delicada</t>
+          <t>Algabo - Shampoo Coco y Miel - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>algabo-men-talco-180</t>
+          <t>algabo-sh-manz-y-magno-ep-930</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Algabo Men - Talco Refrescante - 180 g - Sin fragancia</t>
+          <t>Algabo - Shampoo Manzana y Magnolia - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>algabo-agua-micelar-200</t>
+          <t>algabo-sh-0-acai-y-romero-750</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Algabo - Agua Micelar - 200 ml - Sin Alcohol - Limpieza Profunda</t>
+          <t>Algabo - Shampoo 0% Açaí y Romero - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>algabo-men-after-shave-120</t>
+          <t>ultra-sanitiz-gel-pocket-60</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Algabo Men - After Shave Refrescante - 120 ml</t>
+          <t>Algabo - Gel Sanitizante de Bolsillo - 60 ml</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>algabo-agua-micelar-dosif-120</t>
+          <t>algabo-gel-ducha-kar-agu-350</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Algabo - Agua Micelar Dosis 120 ml - Todo en uno - Limpiador facial y desmaquillante</t>
+          <t>Algabo - Gel de Ducha Kar-Agu - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vais-antigrasa-ep-900</t>
+          <t>kids-acondicionador-sandia-dulce-350-ml</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marca - Vais - Antigrasa - EP 900 - Sin residuos</t>
+          <t>Algabo Kids - Acondicionador Sandía Dulce - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>algabo-men-crema-p-afeitar-150</t>
+          <t>algabo-jab-liq-flo-rain-dp-300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Algabo Men - Crema para Afeitar - 150 ml - Refrescante</t>
+          <t>Algabo - Jabón Líquido Floral - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>kids-zero-locion-100</t>
+          <t>algabo-jab-liq-flower-mix-300</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kids Zero - Loción Refrescante - 100 ml - Sin Alcohol</t>
+          <t>Algabo - Jabón Líquido Flower Mix - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>talco-perfumado-bolsita-floral-200g</t>
+          <t>algabo-jab-liq-cremoso-300</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - Bolsita de 200 g</t>
+          <t>Algabo - Jabón Líquido Cremoso - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>spiderman-jabon-liquido-300</t>
+          <t>algabo-jab-liq-coconut-dp-300</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman - Jabón Líquido - Botella de 300 ml</t>
+          <t>Algabo - Jabón Líquido Coco - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>avengers-jab-liq-surtido-300</t>
+          <t>algabo-jab-liq-f-bosque-dp-300</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marvel - Avengers - Jabón Líquido - Botella - 300 ml</t>
+          <t>Algabo - Jabón Líquido Bosque - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>hello-kitty-jabon-liquido-300</t>
+          <t>algabo-jab-liq-coconut-300</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hello Kitty - Jabón Líquido Botella - 300 ml</t>
+          <t>Algabo - Jabón Líquido Coco - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>star-wars-jabon-liquido-300</t>
+          <t>algabo-jab-liq-ftos-bosque-300</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Star Wars - Jabón Líquido Botella - 300 ml</t>
+          <t>Algabo - Jabón Líquido Bosque - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>zombies-jabon-liq-surtido-300</t>
+          <t>algabo-jab-liq-greentea-dp-300</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Jabón Líquido Botella - 300 ml</t>
+          <t>Algabo - Jabón Líquido Té Verde - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>algabo-jab-liquido-mundial-300</t>
+          <t>algabo-gel-ducha-coco-miel-350</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>El 10 - Jabón Líquido Botella - 300 ml - Transparente - Con aroma refrescante</t>
+          <t>Algabo - Gel de Ducha Coco-Miel - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>algabo-sh-aguacate-y-argan-930</t>
+          <t>algabo-jab-liq-citrus-dp-300</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo de Aguacate y Argán - 930 ml - Verde - Nutrición y reparación capilar</t>
+          <t>Algabo - Jabón Líquido Citrus - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>algabo-sh-coco-y-leche-930</t>
+          <t>algabo-jab-liq-floral-rain-300</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Coco y Leche - 930 ml</t>
+          <t>Algabo - Jabón Líquido Floral Rain - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>algabo-ac-coco-y-leche-930</t>
+          <t>algabo-jab-liq-citrus-300</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Coco y Leche - 930 ml - Hidratación intensa</t>
+          <t>Algabo - Jabón Líquido de Citrus - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>algabo-ac-aguacate-y-argan-930</t>
+          <t>algabo-jab-liq-green-tea-300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aguacate y Argán - 930 ml - Hidratación Intensa y Brillo</t>
+          <t>Algabo - Jabón Líquido Té Verde - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>algabo-ac-manz-y-magnolia-930</t>
+          <t>ultra-sanit-spray-140</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marca - Algabo - Acondicionador Cabellos Claros - 930 ml - Manzana y Magnolia</t>
+          <t>Algabo - Alcohol en Aerosol - 140 ml</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>algabo-sh-manz-y-magnolia-930</t>
+          <t>ultra-sanitizante-gel-750</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Manzanilla y Magnolia - 930 ml - Sin colorantes - Para cabello suave y sedoso</t>
+          <t>Algabo - Gel Sanitizante Ultra - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>algabo-banio-natural-pomo-200</t>
+          <t>algabo-jab-liq-cremoso-dp-300</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Algabo - Baño Natural - Pomo 200 ml - Sin Parabenos y pH Neutro</t>
+          <t>Algabo - Jabón Líquido Cremoso - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>algabo-barro-vegetal-pomo-200</t>
+          <t>algabo-jab-liq-flower-dp-300</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Algabo - Barro Vegetal - Pomo 200 - Verde Natural</t>
+          <t>Algabo - Jabón Líquido Floral - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>algabo-baby-jabon-flow-pack-80-g</t>
+          <t>algabo-espuma-manz-mag-dp-250</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Pastilla - 80 g</t>
+          <t>Algabo - Espuma Manzanilla Mágica - Doypack - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>vais-jab-liq-baja-esp-ep-800</t>
+          <t>algabo-jab-liq-cocomiel-dp-220</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Vais - Jabón Líquido Baja Espuma - Envase Pump 800 ml</t>
+          <t>Algabo - Jabón Líquido Coco y Miel - Doypack 220 ml</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>avengers-spiderman-saniti-holder-30</t>
+          <t>algabo-jab-liq-kar-agu-dp-220</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman - Porta Sanitarios - 30 unidades</t>
+          <t>Algabo - Jabón Líquido Karité y Aguacate - Doypack - 220 ml</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>minions-colonia-con-estuche-125-ml</t>
+          <t>ultra-sanitizante-gel-500</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Minions - Colonia Minions - 125 ml - Amarilla y Divertida</t>
+          <t>Algabo - Gel Sanitizante Ultra - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>frozen-colonia-elsa-125-ml</t>
+          <t>ultra-sanit-spray-500</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Frozen Magic - Body Splash Mágico - 125 ml - Azul Brillante - Fragancia refrescante de invierno</t>
+          <t>Algabo - Spray Sanitizante Ultra - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>avengers-colonia-hulk-125-ml</t>
+          <t>ultra-sanitiz-cglic-pmanos-4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Avengers - Colonia Hulk - 125 ml - Fragancia energizante</t>
+          <t>Algabo - Sanitizante Manos - 4 oz - Glicerina</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hello-kitty-colonia-alegria-125-ml</t>
+          <t>ultra-sanitiz-superficies-4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hello Kitty - Alegría Burbujeante - 125 ml</t>
+          <t>Algabo - Sanitizante Superficies - 4 unidades</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>hello-kitty-colonia-dulzura-125-ml</t>
+          <t>ultra-sanit-gel-cglic-manos-4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hello Kitty - Set de Belleza Dulzura - 125 ml</t>
+          <t>Algabo - Gel Sanitizante Manos - 4 oz - Con Glicerina</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>avengers-colonia-iron-man-125-ml</t>
+          <t>ultra-sanit-spray-125</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvel Heroes - Colonia Iron Man - 125 ml - Fragancia intensa</t>
+          <t>Algabo - Spray Sanitizante Ultra - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>star-wars-colonia-baby-yoda-125-ml</t>
+          <t>algabo-jab-liq-citrus-ep-900</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Star Wars - Colonia Intergaláctica - 125 ml</t>
+          <t>Algabo - Jabón Líquido Citrus - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>avengers-colonia-capitan-america-125</t>
+          <t>algabo-jab-liq-greentea-ep-900</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Marvel - Avengers - Colonia Capitán América - 125 ml - Fresco y masculino</t>
+          <t>Algabo - Jabón Líquido Té Verde - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>avengers-colonia-spiderman-125-ml</t>
+          <t>algabo-jab-liq-floral-ep-900</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman - Colonia - 125 ml - Fragancia fresca y duradera</t>
+          <t>Algabo - Jabón Líquido Floral - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>vais-antigrasa-gatillo-500</t>
+          <t>algabo-jab-liq-antibac-ep-900</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Marca - Vais - Antigrasa - Gatillo - 500 ml</t>
+          <t>Algabo - Jabón Líquido Antibacterial - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>vais-banio-gatillo-500</t>
+          <t>algabo-jab-liq-coco-miel-221</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MarcaX - Limpiador de Baño Gatillo - 500 ml - Frescura de Cítricos</t>
+          <t>Algabo - Jabón Líquido Coco-Miel - 221 ml</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>algabo-enjuague-bucal-250</t>
+          <t>algabo-jab-liq-kar-agu-221</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>OralFresh - Enjuague Bucal - 250 ml - Menta Refrescante</t>
+          <t>Algabo - Jabón Líquido Karité y Aguacate - 221 ml</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>algabo-enj-bucal-salcohol-250</t>
+          <t>algabo-sh-0-oliva-y-argan-750</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Algabo - Enjuague Bucal sin Alcohol - 250 ml</t>
+          <t>Algabo - Shampoo 0% Oliva y Argán - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ultra-zombies-colonia-125-ml-shampoo-200-ml</t>
+          <t>algabo-ac-aguac-y-argan-ep-300</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Set Shampoo 200 ml + Colonia 125 ml</t>
+          <t>Algabo - Acondicionador Aguacate y Argán - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>sally-unicornio-set-shampoo-200-ml-colonia-125-ml</t>
+          <t>algabo-sanitiz-dp-300</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Set de Shampoo 200 ml + Colonia 125 ml</t>
+          <t>Algabo - Sanitizante Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>algabo-hisopos-tubo-125</t>
+          <t>algabo-gel-ext-brillo-gota-150</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos de Algodón - Tubo de 125 unidades</t>
+          <t>Algabo - Gel Silver Gota - 150 ml</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>algabo-hisopos-tubo-125-impo</t>
+          <t>algabo-gel-ext-brillo-pomo-150</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos de Algodón - Tubo de 125 unidades</t>
+          <t>Algabo - Gel de Brillo Extra - Pomo 150 ml</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>caja-x20-talco-perfumado-bolsita-floral-400g</t>
+          <t>algabo-gel-ef-humedo-pomo-150</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - Bolsita 400 g - Blanco - Fórmula suave para bebés</t>
+          <t>Algabo - Gel Húmedo - Pomo 150 ml</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>algabo-quita-c-keratina-100</t>
+          <t>algabo-gel-ext-fuerte-pomo-200</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Algabo - Quita Cutículas con Keratina - 100 ml - Fortalece y nutre las uñas</t>
+          <t>Algabo - Gel Extra Fuerte - Pomo 200 ml</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>algabo-quita-humectante-100</t>
+          <t>algabo-gel-ext-brillo-pomo-200</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Algabo - Quita Humectante - 100 ml - Transparente - Elimina la humedad de forma efectiva</t>
+          <t>Algabo - Gel Extra Brillo - Pomo 200 ml</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>algabo-quita-fortalecedor-100</t>
+          <t>algabo-gel-ef-humedo-pomo-200</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Marca - Algabo - Quita Fortalecedor - 100 ml - Fortaleza y Protección</t>
+          <t>Algabo - Gel Efecto Húmedo - Pomo 200 ml</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>algabo-esp-antib-manzmag-250</t>
+          <t>algabo-gel-ext-fuerte-150</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Algabo - Espuma Antibacterial Manzana y Magnolia - 250 ml</t>
+          <t>Algabo - Gel Titanium - 150 ml</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>polvo-de-fecula-talquera-250g</t>
+          <t>algabo-gel-ef-humedo-gota-150</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Algabo Natural - Fécula de Maíz Orgánica - 250 g</t>
+          <t>Algabo - Gel Chrome - 150 gotas - Plateado</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-475</t>
+          <t>Algabo-hisopos-tubo-200</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Algabo - Gel Efecto Húmedo - 475 ml - Transparente - Fórmula hidratante</t>
+          <t>Algabo - Hisopos Tubo - 200 unidades</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-fuerte-475</t>
+          <t>algabo-banio-natural-pomo-200</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - 475 ml - Fijación duradera</t>
+          <t>Algabo - Baño Natural - Pomo 200 ml</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-475</t>
+          <t>algabo-banio-natural-argan-350</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Brillo - 475 ml - Fijación Fuerte</t>
+          <t>Algabo - Baño Natural Argán - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>algabo-baby-aceite-para-bebe-200-ml</t>
+          <t>algabo-barro-vegetal-pomo-200</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Algabo Baby - Aceite de Masaje - 200 ml</t>
+          <t>Algabo - Barro Vegetal - Pomo - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>set-regalo-crema-shower-gel</t>
+          <t>algabo-barro-vegetal-pote-350</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CosyStyle - Vais perf tela cálida primavera - 250 ml - Azul marino - Con capucha y bolsillos</t>
+          <t>Algabo - Mascarilla de Barro Vegetal - Pote 350 ml</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>vais-perf-tela-dulces-mimo-250</t>
+          <t>algabo-crema-peinar-argan-300</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sweet Bliss - Vais Perfume de Tela - Dulces Mimos - 250 ml</t>
+          <t>Algabo - Crema Peinar Argán - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>vais-perf-tela-calida-prim-250</t>
+          <t>algabo-crema-peinar-kerat-300</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vais - Perfume para telas Suave Brisa - 250 ml</t>
+          <t>Algabo - Crema para Peinar Keratina - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>talco-desodorante-en-polvo-antibacterial-200g</t>
+          <t>algabo-gel-ext-fuerte-pomo-150</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Algabo - Gel Antibacterial para Pies - 200 ml</t>
+          <t>Algabo - Gel Extra Fuerte - Pomo 150 ml</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>baby-set-colonia-125-sh-200</t>
+          <t>algabo-gel-ef-humedo-475</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Algabo Baby - Set Colonia Dulces Sueños 125 ml + Shampoo Suave 200 ml</t>
+          <t>Algabo - Gel Refrescante - 475 ml - Hidratante - Efecto Húmedo</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-pomo-150</t>
+          <t>algabo-gel-ext-brillo-475</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GlamShine - Algabo Gel Extra Brillo - Pomo 150 ml - Transparente</t>
+          <t>Algabo - Gel Extra Brillo - 475 ml</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-pomo-150</t>
+          <t>algabo-gel-ext-fuerte-475</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Algabo - Gel Eficiente Húmedo - Pomo 150 ml - Frescura Extra</t>
+          <t>Algabo - Gel Extra Fuerte - 475 ml</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-fuerte-pomo-150</t>
+          <t>algabo-gel-ef-humedo-pote-350</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pomo 150 ml - Fijación Duradera</t>
+          <t>Algabo - Gel Higienizante Húmedo - Pote 350 ml</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>algabo-quita-c-dosif-120</t>
+          <t>algabo-gel-ext-brillo-pote-350</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Algabo - Quitamanchas con dosificador - 120 ml</t>
+          <t>Algabo - Gel Brillo Intenso - Pote 350 ml</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>algabo-baby-colonia-dulces-mimos-125-ml</t>
+          <t>algabo-gel-ext-fuerte-pote-350</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Dulces Mimos - 125 ml - Fragancia Suave y Duradera</t>
+          <t>Algabo - Gel Extra Fuerte - Pote 350 ml</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>algabo-quita-express-75</t>
+          <t>algabo-gel-ef-humedo-500</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Algabo - Quita Express - 75 ml - Spray - Elimina manchas difíciles rápidamente</t>
+          <t>Algabo - Gel Chrome - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>algabo-men-espuma-afeitar-415</t>
+          <t>algabo-gel-ext-brillo-500</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Algabo Men - Espuma de Afeitar - 415 ml - Refrescante - Para un afeitado suave y sin irritaciones</t>
+          <t>Algabo - Gel Silver - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>avengers-set-colonia-125-ml-shampoo-200-ml</t>
+          <t>algabo-gel-efecto-firme-500</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Marvel - Set Spiderman - 125 ml - Rojo y Azul - Con shampoo 200 ml</t>
+          <t>Algabo - Gel Titanium - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>frozen-set-colonia-125-ml-shampoo-200-ml</t>
+          <t>algabo-men-talco-120</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Frozen Magic - Set de Belleza - 125 ml - Azul - Congelado</t>
+          <t>Algabo - Talco Men - 120 g</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>hello-kitty-set-colonia-125-ml-shampoo-200-ml</t>
+          <t>algabo-men-talco-180</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hello Kitty - Set de Belleza - 125 ml + Shampoo 200 ml - Edición Especial</t>
+          <t>Algabo - Talco para hombres - 180 g</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>minions-set-colonia-125-ml-shampoo-200-ml</t>
+          <t>algabo-men-after-shave-120</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Minions - Set de Baño Minions - 125 ml + Shampoo 200 ml - Divertidos personajes amarillos</t>
+          <t>Algabo - After Shave Men - 120 ml</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>algabo-crema-aloe-manz-200</t>
+          <t>algabo-men-crema-p-afeitar-150</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Algabo - Crema Corporal de Aloe Vera y Manzanilla - 200 ml</t>
+          <t>Algabo - Crema de Afeitar Men - 150 ml</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>algabo-crema-avena-karite-200</t>
+          <t>algabo-men-espuma-afeitar-415</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Algabo - Crema de Avena y Karité - 200 ml - Hidratación y Nutrición Intensiva</t>
+          <t>Algabo - Espuma de Afeitar Men - 415 ml</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>algabo-crema-miel-almendra-200</t>
+          <t>algabo-men-espuma-afeitar-200</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Algabo - Crema Hidratante Miel-Almendra - 200 ml - Nutrición Intensa para la Piel</t>
+          <t>Algabo - Espuma de Afeitar Men - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ultra-sanitizante-gel-250</t>
+          <t>algabo-men-cr-afeitar-177</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CleanGuard - Ultra Sanitizante Gel - 250 ml - Sin enjuague</t>
+          <t>Algabo - Crema de Afeitar - Pomo 177 ml</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>algabo-baby-oleo-calcareo-doypack-500-ml</t>
+          <t>algabo-crema-peinar-rizado-300</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Algabo Baby - Oleo Calcáreo Doypack - 500 ml - Hidratación Profunda</t>
+          <t>Algabo - Crema Rizos Perfectos - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Algabo-hisopos-tubo-200</t>
+          <t>algabo-hisopos-tubo-125</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos de Algodón - Tubo - 200 unidades</t>
+          <t>Algabo - Hisopos Tubo - 125 unidades</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>talco-perfumado-floral-250g</t>
+          <t>algabo-ac-coco-y-miel-ep-300</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado Floral - 250 g</t>
+          <t>Algabo - Acondicionador Coco y Miel - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>algabo-hisopos-zipper-125</t>
+          <t>algabo-ac-aguac-y-argan-ep-930</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Algabo Beauty - Hisopos de Algodón con Cierre Zipper - 125 unidades</t>
+          <t>Algabo - Acondicionador Aguacate y Argán - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>talco-perfumado-talquera-violets-250g</t>
+          <t>algabo-crema-avena-karite-400</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - 250 g - Violetas - Fragancia duradera y suave</t>
+          <t>Algabo - Crema Suavizante Avena-Karité - 400 ml</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>algabo-hisopos-tubo-100</t>
+          <t>algabo-crema-aloe-manz-400</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos de Algodón - Tubo de 100 unidades</t>
+          <t>Algabo - Crema Aloe Manzanilla - 400 ml</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>kids-jabon-liquido-dp-300</t>
+          <t>algabo-ac-0-oliva-y-argan-750</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Super Kids - Jabón Líquido Doypack - 300 ml</t>
+          <t>Algabo - Acondicionador 0% Oliva y Argán - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-pote-350</t>
+          <t>algabo-ac-0-acai-y-romero-750</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Algabo - Gel Efervescente Húmedo - Pote de 350 ml - Refrescante</t>
+          <t>Algabo - Acondicionador sin Aclarado - 0% Açaí y Romero - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-pote-350</t>
+          <t>algabo-ac-manz-y-magn-ep-930</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Algabo - Gel de Extensión de Brillo - Pote de 350 ml</t>
+          <t>Algabo - Acondicionador Manzanilla y Magnolia - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-fuerte-pote-350</t>
+          <t>algabo-aco-coco-y-leche-ep-930</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pote 350 ml</t>
+          <t>Algabo - Acondicionador Coco y Leche - Eco Pack - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-antibac-ep-900</t>
+          <t>algabo-ac-manz-y-magnolia-930</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - Envase Pump - 900 ml</t>
+          <t>Algabo - Acondicionador Manzana y Magnolia - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>jabon-liquido-antibacterial-300ml</t>
+          <t>algabo-hisopos-tubo-125-impo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - 300 ml</t>
+          <t>Algabo - Hisopos Tubo - 125 unidades</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-extrasuave-755-ml</t>
+          <t>algabo-ac-coco-y-leche-930</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Extra Suave - 755 ml</t>
+          <t>Algabo - Acondicionador Coco y Leche - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-manzanilla-755-ml</t>
+          <t>algabo-ac-aguacate-y-argan-930</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla - 755 ml</t>
+          <t>Algabo - Acondicionador Aguacate y Argán - 930 ml</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-manzanilla-200-ml</t>
+          <t>trolls-acondicionador-poppi-750-ml</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla - 200 ml - Fórmula suave para cabello delicado</t>
+          <t>Trolls - Acondicionador Poppi - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-extrasuave-200-ml</t>
+          <t>kids-acondicionador-sandia-dulce-750-ml</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Extra Suave - 200 ml</t>
+          <t>Algabo Kids - Acondicionador Sandía Dulce - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-flo-rain-dp-300</t>
+          <t>algabo-ac-detox-ep-300</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral - Doypack 300 ml - Lluvia de Flores</t>
+          <t>Algabo - Mascarilla Facial Detox - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-flower-dp-300</t>
+          <t>algabo-ac-manz-y-magno-ep-300</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Flores - Doypack - 300 ml</t>
+          <t>Algabo - Acondicionador Manzanilla y Magnolia - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-500</t>
+          <t>algabo-crema-miel-almendra-400</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Algabo - Gel Chrome - 500 ml - Plateado - Efecto espejo</t>
+          <t>Algabo - Crema Miel-Almendra - 400 ml</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-500</t>
+          <t>algabo-crema-manos-y-unias-90</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Algabo - Gel Silver - 500 ml - Plateado - Antibacterial y desinfectante</t>
+          <t>Algabo - Crema Manos y Uñas - 90 ml</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-cremoso-dp-300</t>
+          <t>algabo-crema-avena-karite-200</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Cremoso - Doypack 300 ml</t>
+          <t>Algabo - Crema Nutritiva Avena y Karité - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>algabo-gel-efecto-firme-500</t>
+          <t>algabo-crema-miel-almendra-200</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Algabo - Gel Titanium - 500 ml - Fórmula avanzada para una limpieza profunda</t>
+          <t>Algabo - Crema Miel-Almendra - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-coconut-dp-300</t>
+          <t>algabo-crema-aloe-manz-200</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Coco - Doypack 300 ml</t>
+          <t>Algabo - Crema Aloe y Manzanilla - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-f-bosque-dp-300</t>
+          <t>algabo-discos-desmaq-80</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Fragancia Bosque - Doypack 300 ml</t>
+          <t>Algabo - Discos Desmaquillantes - 80 unidades</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-citrus-dp-300</t>
+          <t>algabo-wipes-desmaq-25</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Citrus - Doypack 300 ml</t>
+          <t>Algabo - Toallitas Desmaquillantes - 25 unidades</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-greentea-dp-300</t>
+          <t>algabo-pompones-de-algodon-50</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Té Verde - Doypack - 300 ml</t>
+          <t>Algabo - Pompones de Algodón - 50 unidades</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vais-repelente-crema-plus-200</t>
+          <t>algabo-wipes-micelares-25</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Vais - Repelente Crema Plus - 200 ml - Sin Parabenos y Resistente al Agua</t>
+          <t>Algabo - Toallitas Micelares - 25 unidades</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>frozen-sanit-gel-box-75</t>
+          <t>algabo-agua-micelar-dosif-120</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Frozen - Gel Sanitario en Estuche - 75 ml</t>
+          <t>Algabo - Agua Micelar - Dosificador - 120 ml</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>spiderman-sanitizante-box-75</t>
+          <t>algabo-agua-micelar-200</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman Sanitizante Box - 75 ml - Rojo - Con tapa de seguridad</t>
+          <t>Algabo - Agua Micelar Suave - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>algabo-foot-mujer-100</t>
+          <t>algabo-enjuague-bucal-500</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Algabo - Foot Mujer - 60 unidades - Blanco - Con aroma refrescante</t>
+          <t>Algabo - Enjuague Bucal Frescura 500 - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>algabo-foot-ep-200</t>
+          <t>algabo-enjuague-bucal-250</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 60 ml - Transparente - Hidratante y refrescante</t>
+          <t>Algabo - Enjuague Bucal Fresh - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-extrasuave-444-ml</t>
+          <t>algabo-enj-bucal-salcohol-250</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Extra Suave - 444 ml</t>
+          <t>Algabo - Enjuague Bucal sin Alcohol - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>algabo-baby-acondicionador-cabellos-claros-444-ml</t>
+          <t>algabo-enj-bucal-salcohol-500</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Algabo Baby - Acondicionador de Manzanilla - 444 ml</t>
+          <t>Algabo - Enjuague Bucal Sin Alcohol - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>algabo-baby-shampoo-manzanilla-444-ml</t>
+          <t>algabo-hisopos-tubo-100</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla - 444 ml - Suave y delicado para el cabello del bebé</t>
+          <t>Algabo - Hisopos de Algodón - Tubo - 100 unidades</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Baby-Acondicionador-Cabellos-Suaves-444-ml</t>
+          <t>algabo-hisopos-zipper-125</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Algabo Baby - Acondicionador Extra Suave - 444 ml</t>
+          <t>Algabo - Hisopos Zipper - 125 unidades</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>avengers-spiderman-shampoo-200-ml</t>
+          <t>ultra-sanitiz-gel-holder-30</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman - Shampoo - 200 ml - Fórmula Suave para Niños</t>
+          <t>Algabo - Porta Gel Sanitizante - 30 ml</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>algabo-quita-fortalecedor-50</t>
+          <t>ultra-sanitizante-gel-75</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Algabo - Quita Fortalecedor de Uñas - 50 ml - Transparente - Fortalece y protege las uñas</t>
+          <t>Algabo - Gel Sanitizante Ultra - 75 ml</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>algabo-quita-humectante-50</t>
+          <t>vais-antigrasa-gatillo-500</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Algabo - Quita Humectante - 50 ml - Transparente y sin residuos</t>
+          <t>Vais - Limpiador Antigrasa - Gatillo - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>algabo-quita-ckeratina-50</t>
+          <t>algabo-baby-jabon-con-estuche-90-g</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Algabo - Quita Manchas con Keratina - 50 ml - Elimina manchas difíciles</t>
+          <t>Algabo Baby - Jabón Pastilla Suave - 80 g</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-pomo-200</t>
+          <t>algabo-baby-shampoo-manzanilla-200-ml</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Brillo - Pomo 200 ml - Transparente</t>
+          <t>Algabo Baby - Shampoo Manzanilla - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-pomo-200</t>
+          <t>kids-shampoo-piojos-500-ml</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Algabo - Gel Efecto Húmedo - Pomo 200 ml - Refrescante</t>
+          <t>Algabo Kids - Shampoo Anti Piojos Zero - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ultra-sanitiz-gel-pocket-60</t>
+          <t>algabo-baby-shampoo-extrasuave-200-ml</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CleanGuard - Gel Sanitizante de Bolsillo - 60 ml - Antibacterial</t>
+          <t>Algabo Baby - Shampoo Suave 200 ml</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-fuerte-pomo-200</t>
+          <t>algabo-baby-jabon-liquido-doypack-200-ml</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pomo 200 ml</t>
+          <t>Algabo Baby - Jabón Líquido Suave - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ultra-zombies-alcohol-gel-pocket-60-ml</t>
+          <t>algabo-baby-jabon-liquido-200-ml</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Gel Antibacterial de Bolsillo - 60 ml</t>
+          <t>Algabo Baby - Jabón Líquido con Válvula - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>sally-alcohol-en-gel-pocket-60</t>
+          <t>algabo-baby-jabon-flow-pack-80-g</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sally - Alcohol en Gel Pocket - 60 ml - Transparente - Con Aloe Vera</t>
+          <t>Algabo Baby - Jabón Pastilla - Pack 80 unidades</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Vais-repelente-en-cr-pomo-100</t>
+          <t>kids-zero-locion-100</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Vais Kids - Repelente de mosquitos - Pomo de 100 ml - Sin fragancia</t>
+          <t>Algabo Kids - Loción Zero - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vais-deterg-lavavajilla-ep-800</t>
+          <t>zombies-jabon-liq-surtido-300</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LimpiaBrillante - Detergente Lavavajillas Ultra Potente - 800 ml - Elimina la grasa más difícil</t>
+          <t>Ultra Zombies - Jabón Líquido - Botella de 300 ml</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>algabo-banio-natural-argan-350</t>
+          <t>algabo-baby-colonia-dulces-mimos-125-ml</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Algabo - Baño Natural Argán - 350 ml - Sin Parabenos</t>
+          <t>Algabo Baby - Colonia Dulces Mimos - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>algabo-barro-vegetal-pote-350</t>
+          <t>algabo-baby-colonia-suave-brisa-200-ml</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Algabo - Barro Vegetal - Pote 350 g - Natural - Limpieza profunda de la piel</t>
+          <t>Algabo Baby - Colonia Brisa Suave - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ultra-sanit-spray-superf-500</t>
+          <t>algabo-baby-colonia-dulces-mimos-200-ml</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CleanPro - Ultra Sanit Spray Superficies - 500 ml - Desinfectante de amplio espectro</t>
+          <t>Algabo Baby - Colonia Mimos - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>vais-limpiavidrios-gatillo-500</t>
+          <t>algabo-baby-fecula-doypack-200-g</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CleanPro - Limpiavidrios Gatillo - 500 ml - Sin rayas ni manchas</t>
+          <t>Algabo Baby - Fécula Doypack - 200 g</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>algabo-baby-toallas-humedas-80-unidades</t>
+          <t>algabo-baby-fecula-talquera-200-g</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas - 80 unidades - Fragancia refrescante</t>
+          <t>Algabo Baby - Talquera de Fécula - 200 g</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sally-unicornio-colonia-50-ml</t>
+          <t>baby-set-colonia-125-sh-200</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sally - Colonia Suave - 50 ml</t>
+          <t>Algabo Baby - Set Colonia y Shampoo - 125 ml + 200 ml</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>algabo-sanitiz-dp-300</t>
+          <t>algabo-baby-shampoo-extrasuave-444-ml</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Algabo - Sanitizante en Doypack - 300 ml - Sin enjuague - Efecto prolongado</t>
+          <t>Algabo Baby - Shampoo Suavidad Total - 444 ml</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vais-repelente-kids-spray-200</t>
+          <t>algabo-baby-shampoo-manzanilla-444-ml</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Vais - Repelente Kids Spray - 200 ml - Sin fragancia</t>
+          <t>Algabo Baby - Shampoo Manzanilla Suave - 444 ml</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vais-limpiavidrios-ep-900</t>
+          <t>algabo-baby-shampoo-extrasuave-755-ml</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Marca - Vais - Limpiavidrios - 900 ml - Efecto Profesional</t>
+          <t>Algabo Baby - Shampoo Suavidad Total - 755 ml</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ultra-sanitizante-gel-ep-1000</t>
+          <t>algabo-baby-shampoo-manzanilla-755-ml</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CleanPro - Gel Sanitizante Ultra - 1000 ml - Elimina el 99.9% de las bacterias</t>
+          <t>Algabo Baby - Shampoo Manzanilla - 755 ml</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vais-repelente-spray-200</t>
+          <t>kids-acondicionador-piojos-500-ml</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Vais - Repelente Spray - 200 ml - Sin Aroma</t>
+          <t>Algabo Kids - Spray Antipiojos Zero - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>spiderman-autito-sh-3d-450</t>
+          <t>Baby-Acondicionador-Cabellos-Suaves-444-ml</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman 2 en 1 Autito - 450 ml - Rojo - Con luces y sonidos</t>
+          <t>Algabo Baby - Acondicionador Extra Suave - 444 ml</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>zombie-sh-y-shower-gel-450</t>
+          <t>algabo-baby-acondicionador-cabellos-claros-444-ml</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Marca - Zombies - Autito 2 en 1 - 450 ml - Divertidos colores y diseño interactivo</t>
+          <t>Algabo Baby - Acondicionador Manzanilla - 444 ml</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>algabo-men-espuma-afeitar-200</t>
+          <t>algabo-baby-toallas-humedas-20-unidades</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Algabo Men - Espuma de Afeitar - 200 ml - Refrescante</t>
+          <t>Algabo Baby - Toallitas Húmedas - 20 unidades</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>algabo-baby-toallas-humedas-20-unidades</t>
+          <t>algabo-baby-toallas-humedas-48-unidades</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas - 20 unidades - Suave y delicado para la piel del bebé</t>
+          <t>Algabo Baby - Toallitas Húmedas - 48 unidades</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>algabo-baby-oleo-calcareo-500-ml</t>
+          <t>algabo-baby-toallas-humedas-80-unidades</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Algabo Baby - Oleo Calcáreo Nutritivo - 500 ml</t>
+          <t>Algabo Baby - Toallitas Húmedas - 80 unidades</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>algabo-baby-caja-de-hisopos-de-algodon-55-unidades</t>
+          <t>algabo-baby-toallas-humedas-con-tapa-100-unidades</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Algabo Baby - Hisopos de Algodón - Caja de 30 unidades</t>
+          <t>Algabo Baby - Toallitas Húmedas - 100 unidades</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Baby-Hisopos-Caja-30-Unidades</t>
+          <t>baby-wipes-3-x-48-15-off</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Algabo Baby - Hisopos de Algodón - Caja de 30 unidades</t>
+          <t>Algabo Baby - Toallas Húmedas 3x48 - 15% Descuento</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>algabo-gel-ef-humedo-gota-150</t>
+          <t>algabo-baby-oleo-calcareo-doypack-500-ml</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Marca - Algabo - Gel Chrome - 150 gotas - Plateado brillante</t>
+          <t>Algabo Baby - Oleo Calcáreo - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-brillo-gota-150</t>
+          <t>algabo-baby-oleo-calcareo-500-ml</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Algabo - Gel Silver Gota - 150 ml - Con partículas de plata antibacterianas</t>
+          <t>Algabo Baby - Aceite de Calcáreo - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>algabo-gel-ext-fuerte-150</t>
+          <t>Baby-Oleo-Calcareo-900-ml</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Algabo - Gel Titanium - 150 ml - Transparente - Fórmula de larga duración</t>
+          <t>Algabo Baby - Oleo Calcareo - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>polvo-desodorante-para-pies-talquera-200g</t>
+          <t>algabo-baby-aceite-para-bebe-200-ml</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 200 ml - Sin color - Hidratación intensiva</t>
+          <t>Algabo Baby - Aceite Suave - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>algabo-wipes-desmaq-25</t>
+          <t>Baby-Hisopos-Caja-30-Unidades</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Algabo - Toallitas Desmaquillantes - 25 unidades - Sin alcohol</t>
+          <t>Algabo Baby - Hisopos de Algodón - Caja 30 unidades</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ultra-sanitizante-gel-500</t>
+          <t>zombie-sh-y-shower-gel-450</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CleanMax - Gel Sanitizante Ultra - 500 ml - Sin enjuague</t>
+          <t>Ultra Zombies - Autito 2 en 1 - 450 ml</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>vais-limpiador-lavanda-900</t>
+          <t>ultra-zombies-alcohol-gel-pocket-60-ml</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LimpioMax - Vais Limpiador Lavanda - 900 ml - Fragancia de Lavanda - Elimina manchas difíciles</t>
+          <t>Ultra Zombies - Gel Antibacterial de Bolsillo - 60 ml</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>vais-limp-pompomes-algodon-900</t>
+          <t>hello-kitty-set-colonia-125-ml-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CosyCotton - Toallitas de algodón para bebés - 900 unidades - Blanco - Suaves y absorbentes</t>
+          <t>Algabo - Set Hello Kitty - 125 ml + 200 ml</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>vais-limpiador-fr-primav-900</t>
+          <t>vais-deterg-lavavajilla-ep-800</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vais - Limpiador de Frutas Primavera - 900 ml - Transparente - Elimina residuos de pesticidas</t>
+          <t>Vais - Detergente Lavavajillas - Eco Pack - 800 ml</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>vais-limpiador-citrico-900</t>
+          <t>vais-limp-pompones-algodon-4</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>LimpiaTodo - Vais Limpiador Cítrico - 900 ml - Amarillo - Fórmula cítrica para una limpieza profunda</t>
+          <t>Vais - Algodón Suave - 4 unidades</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>alcohol-en-gel-ultra-70-pocket-70-ml</t>
+          <t>vais-limpiador-fr-primav-4</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CleanPro - Alcohol en Gel Ultra Pocket 70 - 60 ml - Antibacterial - Sin enjuague</t>
+          <t>Vais - Limpiador Fresco Primavera - 4 unidades</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>kids-acondicionador-sandia-dulce-350-ml</t>
+          <t>vais-limpiador-citrico-900</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dulce Kids - Acondicionador Sandía - 350 ml</t>
+          <t>Vais - Limpiador Cítrico - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>kids-shampoo-bubble-gum-350-ml</t>
+          <t>vais-limpiador-lavanda-900</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Chapoteando - Shampoo de Niños Sabor Chicle - 350 ml</t>
+          <t>Vais - Limpiador Lavanda - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>kids-shampoo-melocoton-350-ml</t>
+          <t>vais-limp-pompomes-algodon-900</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Fruity Kids - Shampoo de Melocotón - 350 ml - Amarillo - Sin lágrimas</t>
+          <t>Vais - Pompones de Algodón - 900 unidades</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kids-shampoo-sandia-dulce-350-ml</t>
+          <t>vais-limpiador-fr-primav-900</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FruitKids - Shampoo Sandía Dulce - 350 ml - Rosa - Con aroma a frutas</t>
+          <t>Vais - Limpiador Fresco Primavera - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>algabo-men-cr-afeitar-177</t>
+          <t>vais-jab-liq-baja-esp-ep-800</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Algabo Men - Crema de Afeitar - Pomo 177 g</t>
+          <t>Vais - Jabón Líquido Baja Espuma - Eco Pack - 800 ml</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-kar-agu-dp-220</t>
+          <t>ultra-zombies-colonia-125-ml</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Karité y Aguacate - Doypack 220 ml</t>
+          <t>Ultra Zombies - Colonia Zombie - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-cocomiel-dp-220</t>
+          <t>vais-banio-gatillo-500</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Cocomiel - Doypack 220 ml</t>
+          <t>Vais - Limpiador de Baño Gatillo - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>algabo-espuma-manz-mag-dp-250</t>
+          <t>vais-banio-ep-900</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Algabo - Espuma de Manzanilla y Magnolia - Doypack 250 ml</t>
+          <t>Vais - Baño Refrescante - 900 ml - Azul</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>talco-desodorante-en-polvo-antibacterial-100g</t>
+          <t>vais-antigrasa-ep-900</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Algabo - Spray Antibacterial para Pies - 100 ml - Sin aroma</t>
+          <t>Vais - Limpiador Antigrasa - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>algabo-baby-colonia-suave-brisa-200-ml</t>
+          <t>vais-limpiavidrios-ep-900</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Suave Brisa - 200 ml</t>
+          <t>Vais - Limpiavidrios Ultra - 900 ml</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>algabo-baby-colonia-dulces-mimos-200-ml</t>
+          <t>vais-perf-tela-dulces-mimo-250</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Dulces Mimos - 200 ml</t>
+          <t>Vais - Perfume de Tela Dulces Mimos - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>vais-repelente-extreme-200</t>
+          <t>vais-perf-tela-dulces-mimo-500</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Marca - Vais - Repelente Extreme - 200 ml - Extra protección</t>
+          <t>Vais - Perfume Tela Dulces Mimos - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>algabo-quita-xtreme-prof-100</t>
+          <t>vais-limpiador-lavanda-4</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Algabo - Quita Xtreme Profesional - 100 ml - Extra Fuerte - Elimina manchas difíciles</t>
+          <t>Vais - Limpiador Lavanda - 4 - Multiusos</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>algabo-quita-black-100</t>
+          <t>vais-limpiador-citrus-4</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Algabo - Quita Black - 100 ml - Negro - Elimina manchas negras de forma eficaz</t>
+          <t>Vais - Limpiador Citrus - 4 - Multiusos - Aroma Cítrico</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>colonia-ambre-500ml</t>
+          <t>vais-repelente-spray-200</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Ámbar - 500 ml - Fragancia Cálida y Envolvente</t>
+          <t>Vais - Repelente Spray - 200 ml - Efecto duradero</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>colonia-lavanda-500ml</t>
+          <t>vais-repelente-kids-spray-200</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Lavanda - 500 ml - Morado - Fragancia relajante</t>
+          <t>Vais - Repelente Kids - Spray - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>colonia-inglesa-500ml</t>
+          <t>vais-repelente-crema-plus-200</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Inglesa - 500 ml - Fragancia clásica y elegante</t>
+          <t>Vais - Crema Repelente Plus - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>sally-unicornio-colonia-100-ml</t>
+          <t>vais-repelente-extreme-200</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sally - Colonia Fresca - 100 ml - Floral y Cítrica</t>
+          <t>Vais - Repelente Extreme - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>baby-wipes-3-x-48-15-off</t>
+          <t>Vais-repelente-en-cr-pomo-100</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas - Pack de 3 x 48 unidades - 15% de descuento</t>
+          <t>Vais - Repelente Kids - Pomo 100 - Sin picaduras</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>polvo-desodorante-para-pies-talquera-100g</t>
+          <t>sally-unicornio-colonia-100-ml</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 100 ml - Blanco - Hidratación intensiva</t>
+          <t>Sally Unicornio - Colonia Mágica - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>polvo-desodorante-para-pies-talquera-100g1</t>
+          <t>sally-unicornio-colonia-50-ml</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Algabo - Foot Mujer - 100 ml - Transparente - Hidratación intensa</t>
+          <t>Sally Unicornio - Colonia Mágica - 50 ml</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ultra-sanit-spray-125</t>
+          <t>sally-unicornio-colonia-125-ml</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>CleanPro - Ultra Sanit Spray - 125 ml - Desinfectante multiusos</t>
+          <t>Sally Unicornio - Body Splash - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>algabo-baby-toallas-humedas-48-unidades</t>
+          <t>sally-unicornio-set-shampoo-200-ml-colonia-125-ml</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas - 48 unidades - Suave fragancia</t>
+          <t>Sally Unicornio - Set Shampoo y Colonia - 200 ml + 125 ml</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vais-perf-suave-brisa-500</t>
+          <t>sally-espuma-banio-3d-350</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Algabo - Perfume Cálida Primavera - Doypack 450 ml</t>
+          <t>Sally Unicornio - Espuma de Baño - 350 ml</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>vais-perf-calida-prim-dp-500</t>
+          <t>sally-alcohol-gel-2d-holder-30</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Algabo - Perfume Suave Brisa - Doypack 450 ml</t>
+          <t>Sally Unicornio - Gel Antibacterial - Soporte 2D - 30 ml</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>algabo-gel-ducha-kar-agu-350</t>
+          <t>sally-alcohol-en-gel-pocket-60</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Algabo - Gel de Ducha Kar-Agua - 350 ml - Refrescante aroma a karité y agua</t>
+          <t>Sally Unicornio - Gel Antibacterial Pocket - 60 ml</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>algabo-gel-ducha-coco-miel-350</t>
+          <t>sally-alcohol-gel-perf-75</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Algabo - Gel de Ducha Coco-Miel - 350 ml - Nutritivo - Aroma Exótico</t>
+          <t>Sally Unicornio - Gel Antibacterial Perfumado - 75 ml</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>algabo-baby-jabon-liquido-doypack-200-ml</t>
+          <t>sally-shampoo-y-shower-gel-250</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Líquido Doypack - 200 ml</t>
+          <t>Sally Unicornio - Acondicionador y Shampoo 2 en 1 - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>algabo-ac-detox-ep-300</t>
+          <t>ultra-zombies-colonia-125-ml-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Algabo - AC Detox - 300 ml - Efecto Purificante</t>
+          <t>Ultra Zombies - Set Shampoo + Colonia - 200 ml + 125 ml</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>algabo-sh-aguac-y-argan-ep-300</t>
+          <t>algabo-baby-caja-de-hisopos-de-algodon-55-unidades</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Aguacate y Argán - Edición Premium - 300 ml</t>
+          <t>Algabo Baby - Hisopos de Algodón - Caja 30 unidades</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>algabo-sh-coco-y-leche-ep-300</t>
+          <t>hello-kitty-colonia-dulzura-125-ml</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Coco y Leche - 300 ml - Extra Protección</t>
+          <t>Hello Kitty - Colonia Dulzura - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>algabo-sh-manz-y-magno-ep-300</t>
+          <t>algabo-saniti-incoloro-300</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Manzanilla y Magnolia - Envase Pump - 300 ml</t>
+          <t>Algabo - Sanitizante Incoloro - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>algabo-ac-manz-y-magno-ep-300</t>
+          <t>algabo-talco-soft-ep-200</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Cabellos Claros Manzanilla y Magnolia - 300 ml - Sin color - Extracto de manzanilla y magnolia para cabellos claros</t>
+          <t>Algabo - Talco Clásico - 120 g</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>algabo-ac-coco-y-miel-ep-300</t>
+          <t>algabo-talco-perfumado-talquera-violets-250-grs</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Coco y Miel - 300 ml - Extra Protección</t>
+          <t>Algabo - Talco Perfumado Violets - 250 g</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>algabo-ac-aguac-y-argan-ep-300</t>
+          <t>talco-perfumado-floral-250g</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aceite de Aguacate y Argán - 300 ml - Extra Protección</t>
+          <t>Algabo - Talco Perfumado - 250 g - Floral</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>algabo-sh-detox-ep-300</t>
+          <t>algabo-foot-antibacterial-200</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Detox - 300 ml - Extra Purificante</t>
+          <t>Algabo - Spray Refrescante para Pies - 153 ml</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sally-espuma-banio-3d-350</t>
+          <t>algabo-talco-desodorante-en-polvo-antibacterial-200-grs</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Esponja de baño mágica - 350 g</t>
+          <t>Algabo - Spray Antibacterial para Pies - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>repuesto-polvo-fecula-250g</t>
+          <t>algabo-talco-desodorante-en-polvo-antibacterial-100-grs</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Algabo Natural - Fécula Doypack - 250 g - Sin aditivos</t>
+          <t>Algabo - Spray Antibacterial para Pies - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>desodorante-anti-transpirante-para-pies-aerosol-153ml</t>
+          <t>algabo-talco-clasico-120</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Algabo - Foot Attention - Parches para pies - 153 unidades</t>
+          <t>Algabo - Talco Suave - 120 g</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>algabo-crema-peinar-argan-300</t>
+          <t>algabo-talco-soft-rosa-180</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Algabo - Crema para peinar con aceite de argán - 300 ml</t>
+          <t>Algabo - Talco Suave - 200 g</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>algabo-crema-peinar-kerat-300</t>
+          <t>algabo-foot-ep-200</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Algabo Haircare - Crema para Peinar con Keratina - 300 ml - Protección y Brillo</t>
+          <t>Algabo - Crema para pies - 60 ml</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>algabo-crema-peinar-rizado-300</t>
+          <t>algabo-desodorante-en-polvo-suave-180-grs</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Algabo - Crema para peinar rizos definidos - 300 ml - Anti-frizz</t>
+          <t>Algabo - Talco Suave - 180 g - Rosa</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>desodorante-antitranspirante-para-calzado-aerosol-153-ml</t>
+          <t>algabo-desodorante-en-polvo-clasico-200-grs</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Algabo - Atención para pies - 153 ml - Transparente - Para calzado</t>
+          <t>Algabo - Talco Clásico - Eco Pack - 200 g</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>algabo-foot-antibacterial-200</t>
+          <t>algabo-foot-mujer-100</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Algabo - Desodorante para pies Fresh Aer - 153 ml - Sin color - Con tecnología refrescante</t>
+          <t>Algabo - Crema para pies de mujer - 60 ml</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ultra-sanitizante-gel-750</t>
+          <t>polvo-desodorante-para-pies-talquera-100g1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>CleanGuard - Ultra Sanitizante Gel - 750 ml - Sin enjuague</t>
+          <t>Algabo - Crema para pies - Mujer - 100 ml</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>kids-shampoo-sandia-dulce-750-ml</t>
+          <t>algabo-desodorante-en-polvo-clasico-180-grs</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FruitKids - Shampoo Sandía Dulce - 750 ml - Rosa - Sin lágrimas</t>
+          <t>Algabo - Talco Clásico - 180 g</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>kids-acondicionador-sandia-dulce-750-ml</t>
+          <t>algabo-desodorante-antitranspirante-para-calzado-aerosol-153-ml</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FrescorKids - Acondicionador Sandía Dulce - 750 ml</t>
+          <t>Algabo - Desodorante Calzado - 153 ml</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>kids-shampoo-bubble-gum-750-ml</t>
+          <t>algabo-talco-perfumado-bolista-floral-200-grs</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Happy Kids - Shampoo de Chicle - 750 ml - Rosa - Sin lágrimas</t>
+          <t>Algabo - Talco Perfumado - Bolsita - 200 g</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>kids-acondicionador-piojos-500-ml</t>
+          <t>caja-x20-talco-perfumado-bolsita-floral-400g</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Marca - Kids - Champú Acondicionador Antipiojos - 500 ml - Sin Químicos</t>
+          <t>Algabo - Talco Perfumado - Bolsita - 400 g</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>kids-shampoo-piojos-500-ml</t>
+          <t>algabo-polvo-de-fecula-talquera-250-grs</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Kids Zero - Shampoo Antipiojos - 500 ml - Sin lágrimas</t>
+          <t>Algabo - Fécula Natural - 250 g</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>vais-limpiador-citrus-4</t>
+          <t>algabo-polvo-fecula-repuesto-250-grs</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Marca - Vais - Limpiador Citrus - 4 - Amarillo - Elimina manchas difíciles</t>
+          <t>Algabo - Fécula Natural - Doypack - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>vais-limp-pompones-algodon-4</t>
+          <t>algabo-colonia-ambre-500-ml</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Suavidad Natural - Pompones de Algodón - 4 unidades - Blanco - Hipoalergénicos</t>
+          <t>Algabo - Colonia Ámbar - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>vais-limpiador-fr-primav-4</t>
+          <t>algabo-colonia-inglesa-500-ml</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FreshClean - Limpiador de Superficies para el Hogar - Fragancia Primavera - 4 Litros</t>
+          <t>Algabo - Colonia Inglesa - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>vais-limpiador-lavanda-4</t>
+          <t>colonia-lavanda-500ml</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Marca - Vais - Limpiador Lavanda - 4 Unidades</t>
+          <t>Algabo - Colonia Lavanda - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>trolls-branch-shampoo-750-ml</t>
+          <t>colonia-inglesa-750ml</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Trolls - Shampoo Branch - 750 ml - Verde brillante para cabello divertido</t>
+          <t>Algabo - Colonia Inglesa - 750 ml</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>trolls-poppi-acondicionador-750-ml</t>
+          <t>kids-jabon-liquido-dp-300</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Trolls - Acondicionador Poppi - 750 ml - Suavidad y brillo para el cabello</t>
+          <t>Algabo Kids - Jabón Líquido Suave - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>trolls-poppi-shampoo-750-ml</t>
+          <t>jabon-liquido-antibacterial-coco-y-lavanda-500-ml</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Trolls - Shampoo Poppi - 750 ml - Colorido y divertido</t>
+          <t>Algabo - Jabón Líquido Coco-Lavanda - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-floral-ep-900</t>
+          <t>jabon-liquido-antibacterial-manzana-y-magnolia-500ml</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral - Envase Pump - 900 ml</t>
+          <t>Algabo - Jabón Líquido Manzanilla Mágica - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-greentea-ep-900</t>
+          <t>jabon-liquido-antibacterial-300ml</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Green Tea - 900 ml - Extracto de té verde</t>
+          <t>Algabo - Jabón Líquido Antibacterial - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-citrus-ep-900</t>
+          <t>jabon-liquido-antibacterial-neutro-doy-pack-300ml</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Citrus - 900 ml - Amarillo - Extracto de limón</t>
+          <t>Algabo - Jabón Líquido Antibacterial - Doypack - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>avengers-shampo-surtido-2d-350</t>
+          <t>jabon-antibacterial-bidon-4-lts</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Marvel - Avengers - Shampoo Surtido 2 en 1 - 350 ml - Diseño 3D</t>
+          <t>Algabo - Jabón Líquido Antibacterial - Bidón 4L</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>spiderman-sh-2d-350</t>
+          <t>alcohol-en-gel-ultra-70-pocket-70-ml</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Marvel - Spiderman - Shampoo 2 en 1 - 350 ml - Acción 2D</t>
+          <t>Algabo - Gel Antibacterial Ultra Pocket - 70 ml</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>algabo-wipes-micelares-25</t>
+          <t>ultra-sanit-spray-superf-500</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Algabo - Toallas Húmedas Micelares - 25 unidades</t>
+          <t>Algabo - Spray Superficies Ultra - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-green-tea-300</t>
+          <t>algabo-esp-antib-manzmag-250</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Green Tea - 300 ml</t>
+          <t>Algabo - Espuma Antibacterial Manzana y Magnolia - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-citrus-300</t>
+          <t>desodorante-anti-transpirante-para-pies-aerosol-153ml</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Citrus - 300 ml</t>
+          <t>Algabo - Crema para pies - 153 ml</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-flower-mix-300</t>
+          <t>algabo-polvo-desodorante-para-pieas-repuesto-200-grs</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Flower Mix - 300 ml - Fragancia Floral</t>
+          <t>Algabo - Crema para pies - 200 ml - Hidratante - Suavizante</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-floral-rain-300</t>
+          <t>hello-kitty-colonia-alegria-125-ml</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral Rain - 300 ml</t>
+          <t>Hello Kitty - Alegría - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-ftos-bosque-300</t>
+          <t>avengers-colonia-hulk-125-ml</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Foresta - 300 ml</t>
+          <t>Avengers - Colonia Hulk - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-coconut-300</t>
+          <t>spiderman-sanitizante-box-75</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Coco - 300 ml</t>
+          <t>Spiderman - Sanitizante en Caja - 75 ml</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-cremoso-300</t>
+          <t>spiderman-jabon-liquido-300</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Cremoso - 300 ml</t>
+          <t>Spiderman - Jabón Líquido - Botella 300 ml</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>algabo-ac-manz-y-magn-ep-930</t>
+          <t>avengers-jab-liq-surtido-300</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Marca - Algabo Baby
-Nombre del producto - Acondicionador Cabellos Claros con Manzanilla y Magnolia
-Cantidad - 930 ml
-Color - N/A
-Otras características relevantes - Enriquecido con extractos de manzanilla y magnolia para cabellos claros y sedosos.</t>
+          <t>Avengers - Jabón Líquido - Botella 300 ml</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>algabo-sh-aguac-y-argan-ep-930</t>
+          <t>avengers-colonia-spiderman-125-ml</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Aguacate y Argán - 930 ml - Efecto Profundo</t>
+          <t>Spiderman - Colonia Superheroica - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>algabo-aco-coco-y-leche-ep-930</t>
+          <t>avengers-colonia-capitan-america-125</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Coco y Leche - 930 ml - Extra Protección</t>
+          <t>Avengers - Colonia Capitán América - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>algabo-sh-manz-y-magno-ep-930</t>
+          <t>avengers-colonia-iron-man-125-ml</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Manzanilla y Magnolia - Extra Protección - 930 ml</t>
+          <t>Avengers - Colonia Iron Man - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>algabo-baby-jabon-con-estuche-90-g</t>
+          <t>avengers-set-colonia-125-ml-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Pastilla - 80 g</t>
+          <t>Spiderman - Set de Baño - 125 ml + Shampoo 200 ml</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>algabo-ac-aguac-y-argan-ep-930</t>
+          <t>algabo-polvo-desodorante-para-pies-200-grs</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aguacate y Argán - Edición Premium - 930 ml</t>
+          <t>Algabo - Crema para pies - 200 ml</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>algabo-sh-coco-y-miel-ep-930</t>
+          <t>frozen-sanit-gel-box-75</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Coco y Miel - 930 ml - Sin Parabenos - Nutrición Intensa</t>
+          <t>Princesas - Gel Sanitizante Frozen - Caja 75 ml</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ultra-sanitiz-gel-holder-30</t>
+          <t>star-wars-jabon-liquido-300</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>CleanGuard - Soporte para Gel Sanitizante Ultra - 30 ml - Transparente - Con clip para colgar en la mochila</t>
+          <t>Star Wars - Jabón Líquido Baño y Tocador - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>algabo-baby-jabon-liquido-200-ml</t>
+          <t>frozen-colonia-elsa-125-ml</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Líquido con Válvula Dosificadora - 200 ml</t>
+          <t>Princesas - Splash Corporal Frozen - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Baby-Oleo-Calcareo-900-ml</t>
+          <t>star-wars-colonia-baby-yoda-125-ml</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Algabo Baby - Oleo Calcáreo Extra Protección - 900 ml</t>
+          <t>Star Wars - Colonia Espacial - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sally-shampoo-y-shower-gel-250</t>
+          <t>frozen-set-colonia-125-ml-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Shampoo y Acondicionador 2 en 1 - 250 ml - Rosa - Con aroma a unicornio</t>
+          <t>Princesas - Set Frozen - 125 ml + 200 ml - Azul y Blanco - Edición Especial</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ultra-sanitizante-gel-75</t>
+          <t>hello-kitty-jabon-liquido-300</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CleanGuard - Gel Sanitizante Ultra - 75 ml - Sin enjuague</t>
+          <t>Hello Kitty - Jabón Líquido Botella - 300 ml</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ultra-sanit-spray-500</t>
+          <t>avengers-spiderman-saniti-holder-30</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>CleanPro - Sanitizador Ultra - Spray 500 ml - Desinfectante de amplio espectro</t>
+          <t>Spiderman - Soporte Sanitario - 30 unidades</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>algabo-ac-0-oliva-y-argan-750</t>
+          <t>avengers-spiderman-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador sin aceite de oliva y argán - 750 ml - 0% Aceite</t>
+          <t>Spiderman - Shampoo 200 - Cabello de héroe - Fórmula suave</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>algabo-sh-0-oliva-y-argan-750</t>
+          <t>spiderman-sh-2d-350</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo 0% Oliva y Argán - 750 ml</t>
+          <t>Spiderman - Shampoo Spiderman - 350 ml - 2D</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>algabo-sh-0-acai-y-romero-750</t>
+          <t>spiderman-autito-sh-3d-450</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo 0% Açaí y Romero - 750 ml - Sin sulfatos ni parabenos</t>
+          <t>Spiderman - Autito 2 en 1 - 450 ml</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>algabo-ac-0-acai-y-romero-750</t>
+          <t>avengers-shampo-surtido-2d-350</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Sin Aclarado - 0% Açaí y Romero - 750 ml</t>
+          <t>Avengers - Shampoo 2 en 1 - 350 ml - Surtido de personajes</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-kar-agu-221</t>
+          <t>minions-set-colonia-125-ml-shampoo-200-ml</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Karité y Aguacate - 221 ml</t>
+          <t>Minions - Set Colonia + Shampoo - 125 ml + 200 ml</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>algabo-jab-liq-coco-miel-221</t>
+          <t>minions-colonia-con-estuche-125-ml</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Coco-Miel - 221 ml</t>
+          <t>Minions - Colonia Fresca - 125 ml</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jabon-liquido-antibacterial-neutro-doy-pack-300ml</t>
+          <t>greenwood-aco-perro-gato-500</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - Doypack - 300 ml</t>
+          <t>GreenWood - Shampoo para Perro y Gato - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>algabo-saniti-incoloro-300</t>
+          <t>set-regalo-crema-shower-gel</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Algabo - Saniti Incoloro - 300 ml - Desinfectante de superficies</t>
+          <t>Vais - Vestido de Tela Cálida - Primavera - 250 g</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jabon-liquido-antibacterial-coco-y-lavanda-500-ml</t>
+          <t>vais-perf-tela-calida-prim-250</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Coco-Lavanda - 500 ml</t>
+          <t>Vais - Perfume Tela - Suave Brisa - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jabon-liquido-antibacterial-manzana-y-magnolia-500ml</t>
+          <t>vais-perf-tela-suave-brisa-250</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Manzanilla-Magnolia - 500 ml</t>
+          <t>Vais - Manta Térmica - Primavera - 500 gramos</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>jabon-antibacterial-bidon-4-lts</t>
+          <t>vais-perf-tela-calida-prim-500</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - Bidón 4L</t>
+          <t>Vais - Perfume Suave Brisa - 500 ml</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ultra-sanitiz-cglic-pmanos-4</t>
+          <t>vais-perf-suave-brisa-500</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ultra Clean - Sanitizante con Glicerina para Manos - 4 oz - Transparente - Antibacterial</t>
+          <t>Algabo - Perfume Cálida Primavera - Doypack - 450 ml</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ultra-sanit-spray-140</t>
+          <t>vais-perf-calida-prim-dp-500</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ultra Clean - Alcohol en Aerosol - 140 ml - Desinfectante de superficies</t>
+          <t>Algabo - Perfume Suave Brisa - Doypack - 450 ml</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ultra-sanitiz-superficies-4</t>
+          <t>vais-perf-suave-brisa-dp-500</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>CleanGuard - Ultra Sanitizante para Superficies - 4 litros - Transparente - Desinfectante de amplio espectro</t>
+          <t>Vais - Perfume Suave Brisa - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ultra-sanit-gel-cglic-manos-4</t>
+          <t>vais-perf-suave-brisa-dp-250</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>CleanHands - Ultra Sanit Gel con Glicerina - 4 oz - Limpieza Profunda</t>
+          <t>Vais - Perfume Cálida Primavera - Doypack - 250 ml</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ultra-sanit-gel-fresh-250</t>
+          <t>polvo-desodorante-para-pies-talquera-100g</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Algabo - Ultra Sanit Gel Fresh - 250 ml - Con aroma refrescante</t>
+          <t>Algabo - Crema para pies - 100 ml</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>St Valley - Hisopos Tubo - 100 unidades - Blanco - Algodón 100%</t>
+          <t>St Valley - Hisopos - Tubo 100 - Blanco - Algodón suave</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Marca - Cocoa Sun - Protector Solar FPS 50 - Pomo 130 ml</t>
+          <t>Algabo - Protector Solar Cocoa FPS 50 - Pomo 130 ml</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Detox - 930 ml - Sin color - Elimina impurezas y toxinas</t>
+          <t>Algabo - Shampoo Detox - 930 ml</t>
         </is>
       </c>
     </row>
@@ -3829,8 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Marca - Nombre del producto - Cantidad - Color - Otras características relevantes: 
-Algabo - Ac Detox - 930 ml - Transparente - Fórmula antioxidante</t>
+          <t>Algabo - Mascarilla Facial Detox - 930 ml</t>
         </is>
       </c>
     </row>

--- a/openai/algabo_results.xlsx
+++ b/openai/algabo_results.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Algabo - Quitamanchas con dosificador - 120 ml</t>
+          <t>Algabo - Quitamanchas con Dosificador - 120 ml</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Algabo Kids - Shampoo Sandía - 350 ml</t>
+          <t>Algabo Kids - Shampoo Sandía Sweet - 350 ml</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Algabo - Quita Manchas Negras - 100 ml</t>
+          <t>Algabo - Removedor de Manchas Negras - 100 ml</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Algabo - Quita Manchas Xtreme - Profesional - 100 ml</t>
+          <t>Algabo - Removedor de Manchas Xtreme - 100 ml</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Algabo - Quita Keratina - 100 ml</t>
+          <t>Algabo - Removedor de Queratina - 100 ml</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Algabo - Quita Fortalecedor - 100 ml</t>
+          <t>Algabo - Quitaesmalte Fortalecedor - 100 ml</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Algabo - Quita Manchas Express - 75 ml</t>
+          <t>Algabo - Quita Manchas Express - 75 ml - Sin Esfuerzo</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Algabo - Gel Sanitizante Ultra - Eco Pack - 1000 ml</t>
+          <t>Algabo - Gel Sanitizante Ultra - 1000 ml - Transparente - Fórmula de Secado Rápido</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Algabo - Quita Cutículas con Keratina - 50 ml</t>
+          <t>Algabo - Quitaesmalte con Keratina - 50 ml</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Algabo - Quita Humectante - 50 ml</t>
+          <t>Algabo - Quita Humectante - 50 ml - Sin residuos</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Algabo - Quita Fortalecedor - 50 ml</t>
+          <t>Algabo - Quita Esmalte Fortalecedor - 50 ml</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido El 10 - Botella 300 ml</t>
+          <t>Algabo - Jabón Líquido - 300 ml - Transparente</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Algabo - Gel Sanitizante Fresh - 250 ml</t>
+          <t>Algabo - Gel Sanitizante Fresco - 250 ml</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algabo Kids - Shampoo Melocotón - 350 ml</t>
+          <t>Algabo Kids - Shampoo Melocotón - 350 ml - Fragancia suave y nutritiva</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Algabo Kids - Shampoo Chicle - 350 ml</t>
+          <t>Algabo Kids - Shampoo Bubble Gum - 350 ml - Rosa - Sin lágrimas</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Coco y Leche - Envase Pequeño - 300 ml</t>
+          <t>Algabo - Shampoo Coco y Leche - 300 ml - Eco Pack</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Manzanilla y Magnolia - Eco Pack - 300 ml</t>
+          <t>Algabo - Shampoo Manzana y Magnolia - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Detox - Eco Pack - 300 ml</t>
+          <t>Algabo - Shampoo Detox - 300 ml</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Algabo Kids - Shampoo Sandía - 750 ml</t>
+          <t>Algabo Kids - Shampoo Sandía Dulce - 750 ml</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chapoteando - Shampoo Trolls Branch - 750 ml</t>
+          <t>Chapoteando - Shampoo Trolls Branch - 750 ml - Azul - Fórmula suave</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trolls - Shampoo Poppi - 750 ml - Cabello brillante</t>
+          <t>Trolls - Shampoo Poppi - 750 ml - Rosa - Delicadamente perfumado</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Aguacate y Argán - 930 ml</t>
+          <t>Algabo - Shampoo Nutritivo - 930 ml - Aguacate y Argán</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo Manzana y Magnolia - 930 ml</t>
+          <t>Algabo - Shampoo de Manzana y Magnolia - 930 ml</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo 0% Açaí y Romero - 750 ml</t>
+          <t>Algabo - Shampoo 0% Sal - Sin Sal - Acai y Romero - 750 ml</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Algabo Kids - Acondicionador Sandía Dulce - 350 ml</t>
+          <t>Algabo Kids - Sandía Sweet Bath Gel - 350 ml</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Floral - Doy Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Flower Mix - 300 ml</t>
+          <t>Algabo - Jabón Líquido Floral - 300 ml - Mezcla de Flores</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Coco - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido de Coco - 300 ml</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Bosque - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Bosque - Doy Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Coco - 300 ml</t>
+          <t>Algabo - Jabón Líquido de Coco - 300 ml</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Bosque - 300 ml</t>
+          <t>Algabo - Jabón Líquido Frescura Bosque - 300 ml</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Té Verde - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Verde - Doy Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Citrus - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Cítrico - 300 ml - Citrus Fresh</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral Rain - 300 ml</t>
+          <t>Algabo - Jabón Líquido Floral Rain - 300 ml - Transparente &amp; Refrescante</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido de Citrus - 300 ml</t>
+          <t>Algabo - Jabón Líquido Cítrico - 300 ml</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Algabo - Alcohol en Aerosol - 140 ml</t>
+          <t>Algabo - Alcohol en Aerosol Ultra - 140 ml</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Cremoso - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Cremoso - 300 ml</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Floral - 300 ml - Suave y Perfumado</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Algabo - Espuma Manzanilla Mágica - Doypack - 250 ml</t>
+          <t>Algabo - Jabón Espumoso Manzana y Magnolia - 250 ml - Doy Pack</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Coco y Miel - Doypack 220 ml</t>
+          <t>Algabo - Jabón Líquido Cocomiel - 220 ml</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Karité y Aguacate - Doypack - 220 ml</t>
+          <t>Algabo - Jabón Líquido Kar-Agu - 220 ml - Transparente - Con aroma a karité y aguacate</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Algabo - Spray Sanitizante Ultra - 500 ml</t>
+          <t>Algabo - Spray Sanitario Ultra - 500 ml</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Algabo - Sanitizante Manos - 4 oz - Glicerina</t>
+          <t>Algabo - Gel Sanitizante Ultra - 4 oz - Sin Glicerina - Para Manos</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Algabo - Sanitizante Superficies - 4 unidades</t>
+          <t>Algabo - Limpiador Superficies Ultra Sanitizante - 4 Unidades</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Algabo - Gel Sanitizante Manos - 4 oz - Con Glicerina</t>
+          <t>Algabo - Gel Sanitario Glicerina - 4 unidades - Transparente - Cuidado de manos</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Citrus - Eco Pack - 900 ml</t>
+          <t>Algabo - Jabón Líquido Cítrico - 900 ml</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Té Verde - Eco Pack - 900 ml</t>
+          <t>Algabo - Jabón líquido - Té verde - 900 ml</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Floral - Eco Pack - 900 ml</t>
+          <t>Algabo - Jabón Líquido Floral - 900 ml</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - Eco Pack - 900 ml</t>
+          <t>Algabo - Jabón Líquido Antibacterial - 900 ml</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Karité y Aguacate - 221 ml</t>
+          <t>Algabo - Jabón Líquido Karité-Agua - 221 ml</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Algabo - Shampoo 0% Oliva y Argán - 750 ml</t>
+          <t>Algabo - Champú 0% Sal - Sin Sal - Oliva y Argan - 750 ml</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aguacate y Argán - Eco Pack - 300 ml</t>
+          <t>Algabo - Acondicionador Nutritivo Aguacate y Argán - Eco Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Algabo - Sanitizante Doypack - 300 ml</t>
+          <t>Algabo - Sanitizante de Superficie - 300 ml - Sin Enjuague</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Algabo - Gel Silver Gota - 150 ml</t>
+          <t>Algabo - Gel Plateado - 150 ml</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Algabo - Gel de Brillo Extra - Pomo 150 ml</t>
+          <t>Algabo - Gel Capilar Brillo - 150 ml</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Algabo - Gel Húmedo - Pomo 150 ml</t>
+          <t>Algabo - Gel Hidratante - 150 ml - Efecto Húmedo</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pomo 200 ml</t>
+          <t>Algabo - Gel Extra Fuerte - 200 ml - Transparente - Fijación duradera</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Brillo - Pomo 200 ml</t>
+          <t>Algabo - Gel Brillo - 200 ml - Transparente - Aporta brillo duradero</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Algabo - Gel Efecto Húmedo - Pomo 200 ml</t>
+          <t>Algabo - Gel Hidratante - 200 ml - Sin Enjuague - Efecto Húmedo</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Algabo - Gel Titanium - 150 ml</t>
+          <t>Algabo - Gel Capilar Titanium - 150 ml</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Algabo - Gel Chrome - 150 gotas - Plateado</t>
+          <t>Algabo - Gel Capilar Gota Chrome - 150 ml</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos Tubo - 200 unidades</t>
+          <t>Algabo - Hisopos de Algodón - 200 unidades - Blanco - Suaves y absorbentes</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Algabo - Baño Natural - Pomo 200 ml</t>
+          <t>Algabo - Baño Natural - 200 ml - Sin químicos - Pomo</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Algabo - Baño Natural Argán - 350 ml</t>
+          <t>Algabo - Gel de Baño Argan - 350 ml - Natural y Suave</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Algabo - Barro Vegetal - Pomo - 200 ml</t>
+          <t>Algabo - Mascarilla de Barro Vegetal - 200g</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Algabo - Mascarilla de Barro Vegetal - Pote 350 ml</t>
+          <t>Algabo - Mascarilla de Barro Vegetal - 350g - Pote - Purificante y Nutritiva</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Algabo - Crema Peinar Argán - 300 ml</t>
+          <t>Algabo - Crema de Peinar - Argán - 300 ml</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Algabo - Crema para Peinar Keratina - 300 ml</t>
+          <t>Algabo - Crema de Peinar Kerat - 300 ml - Sin Enjuague - Protección y Nutrición</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pomo 150 ml</t>
+          <t>Algabo - Gel Extra Fuerte - 150 ml - Transparente - Fijación duradera</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Algabo - Gel Refrescante - 475 ml - Hidratante - Efecto Húmedo</t>
+          <t>Algabo - Gel Hidratante - 475 ml - Sin Enjuague - Fórmula Humectante</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Brillo - 475 ml</t>
+          <t>Algabo - Gel Capilar Brillo Extremo - 475 ml</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - 475 ml</t>
+          <t>Algabo - Gel Capilar Extra Fuerte - 475 ml</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Algabo - Gel Higienizante Húmedo - Pote 350 ml</t>
+          <t>Algabo - Gel Hidratante - Pote 350 - Efecto Húmedo</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Algabo - Gel Brillo Intenso - Pote 350 ml</t>
+          <t>Algabo - Gel Capilar Extra Brillo - 350 ml</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Algabo - Gel Extra Fuerte - Pote 350 ml</t>
+          <t>Algabo - Gel Capilar Extra Fuerte - Pote 350 ml</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Algabo - Gel Chrome - 500 ml</t>
+          <t>Algabo - Gel Capilar Chrome - 500 ml</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Algabo - Gel Silver - 500 ml</t>
+          <t>Algabo - Gel Capilar Silver - 500 ml</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Algabo - Gel Titanium - 500 ml</t>
+          <t>Algabo - Gel Capilar Premium Titanium - 500 ml</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Algabo - Talco Men - 120 g</t>
+          <t>Algabo - Talco para Hombres - 120 gr</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Algabo - Talco para hombres - 180 g</t>
+          <t>Algabo - Talco para hombres - 180 gr</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Algabo - After Shave Men - 120 ml</t>
+          <t>Algabo - After Shave para Hombres - 120 ml</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Algabo - Crema de Afeitar Men - 150 ml</t>
+          <t>Algabo - Crema de Afeitar para Hombres - 150 ml</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Algabo - Espuma de Afeitar Men - 415 ml</t>
+          <t>Algabo - Espuma de Afeitar para Hombres - 415 ml</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Algabo - Espuma de Afeitar Men - 200 ml</t>
+          <t>Algabo - Espuma de Afeitar para Hombres - 200 ml</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Algabo - Crema de Afeitar - Pomo 177 ml</t>
+          <t>Algabo - Crema de Afeitar para Hombres - 177 ml</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos Tubo - 125 unidades</t>
+          <t>Algabo - Hisopos de Algodón en Tubo - 125 unidades</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aguacate y Argán - Eco Pack - 930 ml</t>
+          <t>Algabo - Acondicionador Aguacate y Argán - 930 ml</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Algabo - Crema Suavizante Avena-Karité - 400 ml</t>
+          <t>Algabo - Crema Avena-Karité - 400 ml - Nutritiva - Piel suave y sedosa</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Algabo - Crema Aloe Manzanilla - 400 ml</t>
+          <t>Algabo - Crema Aloe y Manzanilla - 400 ml</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador 0% Oliva y Argán - 750 ml</t>
+          <t>Algabo - Acondicionador Sin Sal - Oliva y Argán - 750 ml</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador sin Aclarado - 0% Açaí y Romero - 750 ml</t>
+          <t>Algabo - Acondicionador Sin Sal - Açaí y Romero - 750 ml</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Manzanilla y Magnolia - Eco Pack - 930 ml</t>
+          <t>Algabo - Perfume de Manzana y Magnolia - 930ml</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Manzana y Magnolia - 930 ml</t>
+          <t>Algabo - Acondicionador de Manzana y Magnolia - 930 ml</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos Tubo - 125 unidades</t>
+          <t>Algabo - Hisopos de Algodón en Tubo - 125 unidades</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Algabo - Acondicionador Aguacate y Argán - 930 ml</t>
+          <t>Algabo - Acondicionador Aguacate y Argan - 930 ml</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Trolls - Acondicionador Poppi - 750 ml</t>
+          <t>Trolls - Acondicionador Poppi - 750 ml - Rosa brillante - Suavidad y brillo intenso</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Algabo - Mascarilla Facial Detox - Eco Pack - 300 ml</t>
+          <t>Algabo - Acondicionador Detox - 300 ml - Frescura Natural</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Algabo - Crema Miel-Almendra - 400 ml</t>
+          <t>Algabo - Crema Miel-Almendra - 400 ml - Suavidad y Nutrición</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Algabo - Crema Manos y Uñas - 90 ml</t>
+          <t>Algabo - Crema Manos y Uñas - 90 ml - Hidratante - Fortalece las uñas</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Algabo - Crema Nutritiva Avena y Karité - 200 ml</t>
+          <t>Algabo - Crema Avena-Karité - 200 ml - Hidratación intensa</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Algabo - Crema Aloe y Manzanilla - 200 ml</t>
+          <t>Algabo - Crema Aloe-Manzanilla - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Algabo - Agua Micelar - Dosificador - 120 ml</t>
+          <t>Algabo - Agua Micelar Suave - 120 ml</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Algabo - Agua Micelar Suave - 200 ml</t>
+          <t>Algabo - Agua Micelar - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Algabo - Enjuague Bucal Frescura 500 - 500 ml</t>
+          <t>Algabo - Enjuague Bucal Refrescante - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Algabo - Enjuague Bucal Fresh - 250 ml</t>
+          <t>Algabo - Enjuague Bucal Refrescante - 250 ml</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Algabo - Enjuague Bucal sin Alcohol - 250 ml</t>
+          <t>Algabo - Enjuague Bucal Sin Alcohol - 250 ml</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos de Algodón - Tubo - 100 unidades</t>
+          <t>Algabo - Hisopos de Algodón en Tubo - 100 unidades</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Algabo - Hisopos Zipper - 125 unidades</t>
+          <t>Algabo - Hisopos Zipper - 125 unidades - Blanco - Cierre fácil y seguro</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Algabo - Porta Gel Sanitizante - 30 ml</t>
+          <t>Algabo - Soporte para Gel Sanitizante - 30 ml</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Pastilla Suave - 80 g</t>
+          <t>Algabo Baby - Jabón Suave - 80 g</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla - 200 ml</t>
+          <t>Algabo Baby - Shampoo Manzanilla Suave - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Algabo Kids - Shampoo Anti Piojos Zero - 500 ml</t>
+          <t>Algabo Kids - Shampoo Anti-Piojos - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Suave 200 ml</t>
+          <t>Algabo Baby - Shampoo Suavidad Pura - 200 ml - Transparente - Sin lágrimas</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Líquido Suave - 200 ml</t>
+          <t>Algabo Baby - Jabón Líquido Suave - 200 ml - Sin Lágrimas</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Líquido con Válvula - 200 ml</t>
+          <t>Algabo Baby - Jabón Líquido Suave - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Algabo Baby - Jabón Pastilla - Pack 80 unidades</t>
+          <t>Algabo Baby - Jabón Suave - 80g - Blanco - Fórmula delicada para bebés</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Algabo Kids - Loción Zero - 100 ml</t>
+          <t>Algabo Kids - Loción Zero - 100 ml - Sin fragancia - Hidratación suave</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Jabón Líquido - Botella de 300 ml</t>
+          <t>Ultra Zombies - Jabón Líquido - 300 ml - Transparente - Fórmula suave y refrescante</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Dulces Mimos - 125 ml</t>
+          <t>Algabo Baby - Colonia Dulces Mimos - 125 ml - Fragancia suave</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Brisa Suave - 200 ml</t>
+          <t>Algabo Baby - Colonia Fresca - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Algabo Baby - Colonia Mimos - 200 ml</t>
+          <t>Algabo Baby - Colonia Dulces Mimos - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Algabo Baby - Fécula Doypack - 200 g</t>
+          <t>Algabo Baby - Fécula en Bolsa - 200 g</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Algabo Baby - Talquera de Fécula - 200 g</t>
+          <t>Algabo Baby - Talquera de Fécula - 200 g - Blanco - Suave y absorbente</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Algabo Baby - Set Colonia y Shampoo - 125 ml + 200 ml</t>
+          <t>Algabo Baby - Set Dulces Mimos - 125 ml Colonia + 200 ml Shampoo</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Suavidad Total - 444 ml</t>
+          <t>Algabo Baby - Shampoo de Bebé Suave - 444 ml</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla Suave - 444 ml</t>
+          <t>Algabo Baby - Shampoo Suave - 444 ml - Manzanilla - Sin lágrimas</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Algabo Baby - Shampoo Manzanilla - 755 ml</t>
+          <t>Algabo Baby - Shampoo Suave - 755 ml</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Algabo Kids - Spray Antipiojos Zero - 500 ml</t>
+          <t>Algabo Kids - Aco Piojos - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Algabo Baby - Acondicionador Extra Suave - 444 ml</t>
+          <t>Algabo Baby - Acondicionador Suave - 444 ml</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallitas Húmedas - 20 unidades</t>
+          <t>Algabo Baby - Toallitas Húmedas - 20 unidades - Suave y delicado</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallitas Húmedas - 48 unidades</t>
+          <t>Algabo Baby - Toallitas Húmedas - 48 unidades - Sin fragancia - Ultra suaves</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallitas Húmedas - 80 unidades</t>
+          <t>Algabo Baby - Toallas Húmedas - 80 unidades</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallitas Húmedas - 100 unidades</t>
+          <t>Algabo Baby - Toallas Húmedas Suaves - 100 unidades</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Algabo Baby - Toallas Húmedas 3x48 - 15% Descuento</t>
+          <t>Algabo Baby - Toallas Húmedas - Pack de 3 - 48 unidades - 15% de descuento</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Algabo Baby - Oleo Calcáreo - 500 ml</t>
+          <t>Algabo Baby - Aceite Calcáreo - 500 ml - Sin fragancia - Para cuidado infantil</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Algabo Baby - Aceite de Calcáreo - 500 ml</t>
+          <t>Algabo Baby - Oleo Calcáreo Suave - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Algabo Baby - Oleo Calcareo - Eco Pack - 900 ml</t>
+          <t>Algabo Baby - Oleo Calcáreo Spray - 900 ml - Transparente - Fácil aplicación</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Algabo Baby - Hisopos de Algodón - Caja 30 unidades</t>
+          <t>Algabo Baby - Caja de hisopos de algodón - 30 unidades - Blanco puro</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Autito 2 en 1 - 450 ml</t>
+          <t>Ultra Zombies - Shampoo + Gel de Ducha - 2 en 1 - Forma de autito - 450 ml</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Algabo - Set Hello Kitty - 125 ml + 200 ml</t>
+          <t>Algabo - Set Hello Kitty - Colonia 125 ml + Shampoo 200 ml - Rosa - Cabello suave y fragante</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Vais - Detergente Lavavajillas - Eco Pack - 800 ml</t>
+          <t>Vais - Lavavajillas - 800 ml - Sin esfuerzo</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vais - Algodón Suave - 4 unidades</t>
+          <t>Vais - Pompones de Algodón - Pack de 4</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Fresco Primavera - 4 unidades</t>
+          <t>Vais - Limpiador Fresco - Primavera - 4 Litros</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Cítrico - 900 ml</t>
+          <t>Vais - Limpiador Cítrico - 900 ml - Frescura Cítrica</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Lavanda - 900 ml</t>
+          <t>Vais - Limpiador de Lavanda - 900 ml - Aroma Relajante</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Vais - Pompones de Algodón - 900 unidades</t>
+          <t>Vais - Pompones de Algodón - 900 unidades - Blanco suave</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Fresco Primavera - 900 ml</t>
+          <t>Vais - Limpiador de Frutas - Primavera - 900 ml</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Vais - Jabón Líquido Baja Espuma - Eco Pack - 800 ml</t>
+          <t>Vais - Jabón Líquido Baja Espuma - 800 ml</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Colonia Zombie - 125 ml</t>
+          <t>Ultra Zombies - Colonia 125 - Fragancia intensa - Para hombres y mujeres</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Vais - Limpiador de Baño Gatillo - 500 ml</t>
+          <t>Vais - Limpiador de Baño - Gatillo - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vais - Baño Refrescante - 900 ml - Azul</t>
+          <t>Vais - Limpiador de Baño - Eco Pack - 900 ml - Sin esfuerzo</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Antigrasa - 900 ml</t>
+          <t>Vais - Limpiador Desengrasante - Eco Pack - 900 ml</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vais - Limpiavidrios Ultra - 900 ml</t>
+          <t>Vais - Limpiavidrios - 900 ml - Transparente - Sin rayas</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Vais - Perfume de Tela Dulces Mimos - 250 ml</t>
+          <t>Vais - Perfumante de Telas Dulces Mimo - 250 ml</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Vais - Perfume Tela Dulces Mimos - 500 ml</t>
+          <t>Vais - Perfumante de Telas Dulces Mimo - 500 ml</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Lavanda - 4 - Multiusos</t>
+          <t>Vais - Limpiador de Lavanda - Pack de 4 - Aroma Relajante</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Vais - Limpiador Citrus - 4 - Multiusos - Aroma Cítrico</t>
+          <t>Vais - Limpiador Citrus - Pack de 4 - Refrescante aroma cítrico</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Vais - Repelente Spray - 200 ml - Efecto duradero</t>
+          <t>Vais - Repelente Spray - 200 ml - Insectos - Protección duradera</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Vais - Crema Repelente Plus - 200 ml</t>
+          <t>Vais - Repelente Crema Plus - 200 ml</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Vais - Repelente Extreme - 200 ml</t>
+          <t>Vais - Repelente Extreme - 200 ml - Transparente - Protección duradera</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Vais - Repelente Kids - Pomo 100 - Sin picaduras</t>
+          <t>Vais - Repelente Infantil - Pomo 100 - Sin Picaduras</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Colonia Mágica - 100 ml</t>
+          <t>Sally Unicornio - Colonia Mágica 100 ml</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Colonia Mágica - 50 ml</t>
+          <t>Sally Unicornio - Colonia 50 ml - Fragancia Floral</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,8 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Body Splash - 125 ml</t>
+          <t>Otras características relevantes:
+Sally Unicornio - Fragancia Mágica - 125 ml - Rosa Brillante - Duración prolongada</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2866,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Set Shampoo y Colonia - 200 ml + 125 ml</t>
+          <t>Sally Unicornio - Set de Cabello Brillante - 200 ml + Colonia - 125 ml</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2878,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Espuma de Baño - 350 ml</t>
+          <t>Sally Unicornio - Espuma de Baño - 350 ml - Rosa - Suave y relajante</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2890,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Gel Antibacterial - Soporte 2D - 30 ml</t>
+          <t>Sally Unicornio - Gel Antibacterial - 30 ml - Soporte 2D - Varios colores disponibles</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Gel Antibacterial Pocket - 60 ml</t>
+          <t>Otras características relevantes: Sally Unicornio - Gel Antibacterial - 60 ml - Transparente - Tamaño de bolsillo</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2914,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Gel Antibacterial Perfumado - 75 ml</t>
+          <t>Sally Unicornio - Gel Antibacterial - 75 ml</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2926,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sally Unicornio - Acondicionador y Shampoo 2 en 1 - 250 ml</t>
+          <t>Sally Unicornio - Champú y Acondicionador 2 en 1 - 250 ml</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2938,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ultra Zombies - Set Shampoo + Colonia - 200 ml + 125 ml</t>
+          <t>Ultra Zombies - Combo Zombie Fresh - 2 - Negro - Perfume y afeitadora</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2950,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Algabo Baby - Hisopos de Algodón - Caja 30 unidades</t>
+          <t>Algabo Baby - Caja de hisopos de algodón suave - 30 unidades</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2962,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hello Kitty - Colonia Dulzura - 125 ml</t>
+          <t>Hello Kitty - Perfume Dulzura - 125 ml</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2986,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - 120 g</t>
+          <t>Algabo - Talco Clásico - 120 gr</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2998,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado Violets - 250 g</t>
+          <t>Algabo - Talco Perfumado - 250 gr - Violets - Fórmula suave y delicada</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3010,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - 250 g - Floral</t>
+          <t>Algabo - Talco Perfumado Floral - 250 gr</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Algabo - Spray Refrescante para Pies - 153 ml</t>
+          <t>Algabo - Desodorante refrescante para pies - 153 ml</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3034,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Algabo - Spray Antibacterial para Pies - 200 ml</t>
+          <t>Algabo - Talco Desodorante Antibacterial para pies - 200 gr</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3046,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Algabo - Spray Antibacterial para Pies - 100 ml</t>
+          <t>Algabo - Talco Desodorante Antibacterial para Pies - 100 gr</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3058,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Algabo - Talco Suave - 120 g</t>
+          <t>Algabo - Talco Suave - 120 gr</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3070,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Algabo - Talco Suave - 200 g</t>
+          <t>Algabo - Talco Suave para Pies - 200 gr</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3082,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 60 ml</t>
+          <t>Algabo - Talco Desodorante para pies - 60 gr</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3094,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Algabo - Talco Suave - 180 g - Rosa</t>
+          <t>Algabo - Talco Suave para pies - 180 gr - Rosa - Fórmula delicada</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - Eco Pack - 200 g</t>
+          <t>Algabo - Talco clásico - 200g - Blanco</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies de mujer - 60 ml</t>
+          <t>Algabo - Talco para Pies - 60 gr - Mujer - Fragancia Refrescante</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - Mujer - 100 ml</t>
+          <t>Algabo - Talco Desodorante para pies mujer - 100 gr.</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3142,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Algabo - Talco Clásico - 180 g</t>
+          <t>Algabo - Talco Suave - 180 gr</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Algabo - Desodorante Calzado - 153 ml</t>
+          <t>Algabo - Plantillas para calzado - 153 ml</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3166,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - Bolsita - 200 g</t>
+          <t>Algabo - Talco Perfumado - 200 gr - Bolsita - Aroma suave</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3178,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Algabo - Talco Perfumado - Bolsita - 400 g</t>
+          <t>Algabo - Talco Perfumado - 400 gr - Bolsita</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Algabo - Fécula Natural - Doypack - 250 ml</t>
+          <t>Algabo - Fécula Natural - 250 g - Transparente - Fácil de usar</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3226,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Inglesa - 500 ml</t>
+          <t>Algabo - Colonia Inglesa - 500 ml - Fragancia Clásica</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3250,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Algabo - Colonia Inglesa - 750 ml</t>
+          <t>Algabo - Colonia Inglesa - 750 ml - Elegante y sofisticada</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3262,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Algabo Kids - Jabón Líquido Suave - 300 ml</t>
+          <t>Algabo Kids - Jabón Suave - 300 ml - Azul - Dermatológicamente probado</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3286,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Manzanilla Mágica - 500 ml</t>
+          <t>Algabo - Jabón Líquido de Manzana y Magnolia - 500 ml</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3310,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Algabo - Jabón Líquido Antibacterial - Doypack - 300 ml</t>
+          <t>Algabo - Jabón Líquido Antibacterial - Doy Pack - 300 ml</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3334,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Algabo - Gel Antibacterial Ultra Pocket - 70 ml</t>
+          <t>Algabo - Gel Sanitizante Ultra Pocket - 70 ml</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Algabo - Spray Superficies Ultra - 500 ml</t>
+          <t>Algabo - Spray Sanitario Ultra - 500 ml - Superficie - Elimina gérmenes y bacterias</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3358,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Algabo - Espuma Antibacterial Manzana y Magnolia - 250 ml</t>
+          <t>Algabo - Jabón Antibacterial de Manzana y Magnolia - 250 ml</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3370,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 153 ml</t>
+          <t>Algabo - Desodorante para pies - 153 ml - Blanco - Fórmula refrescante</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3382,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 200 ml - Hidratante - Suavizante</t>
+          <t>Algabo - Talco Desodorante para pies - 200 gr</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3394,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hello Kitty - Alegría - 125 ml</t>
+          <t>Hello Kitty - Perfume Alegria - 125 ml - Rosa suave - Fragancia dulce y alegre</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3406,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Avengers - Colonia Hulk - 125 ml</t>
+          <t>Avengers - Colonia Hulk 125 ml - Verde - Fragancia fresca y masculina</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3418,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Spiderman - Sanitizante en Caja - 75 ml</t>
+          <t>Spiderman - Caja Sanitizante - 75 ml</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3430,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Spiderman - Jabón Líquido - Botella 300 ml</t>
+          <t>Spiderman - Jabón líquido - 300 ml - Azul - Suave y refrescante</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3442,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Avengers - Jabón Líquido - Botella 300 ml</t>
+          <t>Avengers - Jabón Líquido Suave - Botella - 300 ml</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3454,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Spiderman - Colonia Superheroica - 125 ml</t>
+          <t>Spiderman - Colonia 125 - Fragancia intensa - Edición especial</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3466,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Avengers - Colonia Capitán América - 125 ml</t>
+          <t>Avengers - Colonia Capitán América 125 ml</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3478,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Avengers - Colonia Iron Man - 125 ml</t>
+          <t>Avengers - Colonia Iron Man 125 ml - Rojo intenso - Fragancia duradera</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3490,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Spiderman - Set de Baño - 125 ml + Shampoo 200 ml</t>
+          <t>Spiderman - Set de cuidado personal - 125 ml + 200 ml - Varios colores disponibles - Ideal para niños</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3502,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 200 ml</t>
+          <t>Algabo - Talco refrescante para pies - 200 gr</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3526,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Star Wars - Jabón Líquido Baño y Tocador - 300 ml</t>
+          <t>Star Wars - Jabón Líquido Suave - Botella - 300 ml</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3538,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Princesas - Splash Corporal Frozen - 125 ml</t>
+          <t>Princesas - Splash de Cuerpo Congelado - 125 ml - Azul Brillante - Aroma Refrescante</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3550,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Star Wars - Colonia Espacial - 125 ml</t>
+          <t>Star Wars - Colonia Espacial - 125 ml - Azul - Fragancia única y duradera.</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3562,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Princesas - Set Frozen - 125 ml + 200 ml - Azul y Blanco - Edición Especial</t>
+          <t>Princesas - Set de Belleza - 125 ml Colonia + 200 ml Shampoo - Frozen</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3574,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Hello Kitty - Jabón Líquido Botella - 300 ml</t>
+          <t>Hello Kitty - Jabón líquido - Botella 300 ml</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3586,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Spiderman - Soporte Sanitario - 30 unidades</t>
+          <t>Spiderman - Porta Sanitario - 30 unidades</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3598,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Spiderman - Shampoo 200 - Cabello de héroe - Fórmula suave</t>
+          <t>Spiderman - Shampoo Suave - 200 ml</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3610,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Spiderman - Shampoo Spiderman - 350 ml - 2D</t>
+          <t>Spiderman - Shampoo 2 en 1 - 350 ml - Sin enredos - Fórmula suave</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3622,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Spiderman - Autito 2 en 1 - 450 ml</t>
+          <t>Spiderman - Set de baño 2 en 1 - Autito - 450 ml</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3634,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Avengers - Shampoo 2 en 1 - 350 ml - Surtido de personajes</t>
+          <t>Avengers - Shampoo Surtido 350 ml - Pack de 2 - Varios colores</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Minions - Set Colonia + Shampoo - 125 ml + 200 ml</t>
+          <t>Minions - Set de Fragancia y Shampoo - 125 ml + 200 ml - Fragancia divertida y suave - Ideal para niños</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3658,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Minions - Colonia Fresca - 125 ml</t>
+          <t>Minions - Colonia Fresca 125 ml</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GreenWood - Shampoo para Perro y Gato - 500 ml</t>
+          <t>GreenWood - Shampoo para Mascotas - 500 ml - Perro y Gato - Fórmula Suave y Natural</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3682,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Vais - Vestido de Tela Cálida - Primavera - 250 g</t>
+          <t>Vais - Perfumante de Telas Calida Primavera - 250 ml</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3694,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Vais - Perfume Tela - Suave Brisa - 250 ml</t>
+          <t>Vais - Perfume Suave Brisa - 250 ml - Tela</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3706,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Vais - Manta Térmica - Primavera - 500 gramos</t>
+          <t>Vais - Perfume de Telas - Primavera - 500 ml</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3730,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Algabo - Perfume Cálida Primavera - Doypack - 450 ml</t>
+          <t>Algabo - Perfume Cálida y Primaveral - Doble Pack - 450 ml</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3742,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Algabo - Perfume Suave Brisa - Doypack - 450 ml</t>
+          <t>Algabo - Perfume Suave Brisa - Doy Pack - 450 ml</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3754,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Vais - Perfume Suave Brisa - 250 ml</t>
+          <t>Vais - Perfume Brisa Suave - Doy Pack 250 ml - Refrescante</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3766,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Vais - Perfume Cálida Primavera - Doypack - 250 ml</t>
+          <t>Vais - Perfumante de Telas Calida Primavera - 250 ml</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3778,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Algabo - Crema para pies - 100 ml</t>
+          <t>Algabo - Talco Refrescante para Pies - 100 gr</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3790,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>St Valley - Hisopos - Tubo 100 - Blanco - Algodón suave</t>
+          <t>St Valley - Hisopos de Algodón en Tubo - 100 unidades</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3802,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Algabo - Protector Solar Cocoa FPS 50 - Pomo 130 ml</t>
+          <t>Algabo - Protector Solar Cocoa F50 - 130 ml - Sin Parabenos - Resistente al Agua</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3826,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Algabo - Mascarilla Facial Detox - 930 ml</t>
+          <t>Algabo - Acondicionador Refrescante Detox - 930 ml</t>
         </is>
       </c>
     </row>
